--- a/Mensajes_SMS.xlsx
+++ b/Mensajes_SMS.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4381" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3736" uniqueCount="510">
   <si>
     <t>CELULAR</t>
   </si>
@@ -62,1753 +62,1486 @@
     <t>var15</t>
   </si>
   <si>
-    <t>937296935</t>
-  </si>
-  <si>
-    <t>TERESA cancela tu ultima cuota 1772</t>
+    <t>959567039</t>
+  </si>
+  <si>
+    <t>JOSE, tienes un pago vencido de S/800. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>924759474</t>
-  </si>
-  <si>
-    <t>MILAGROS cancela tu ultima cuota 1571</t>
-  </si>
-  <si>
-    <t>956035611</t>
-  </si>
-  <si>
-    <t>JUAN cancela tu ultima cuota 433</t>
-  </si>
-  <si>
-    <t>960873451</t>
-  </si>
-  <si>
-    <t>JOSE cancela tu ultima cuota 4143</t>
-  </si>
-  <si>
-    <t>904244323</t>
-  </si>
-  <si>
-    <t>JEANPIER cancela tu ultima cuota 1533</t>
-  </si>
-  <si>
-    <t>939626020</t>
-  </si>
-  <si>
-    <t>JULIO cancela tu ultima cuota 1095</t>
-  </si>
-  <si>
-    <t>922762492</t>
-  </si>
-  <si>
-    <t>ROMEL cancela tu ultima cuota 491</t>
-  </si>
-  <si>
-    <t>936877806</t>
-  </si>
-  <si>
-    <t>ELVA cancela tu ultima cuota 5960</t>
-  </si>
-  <si>
-    <t>981686831</t>
-  </si>
-  <si>
-    <t>WENDO cancela tu ultima cuota 1733</t>
-  </si>
-  <si>
-    <t>922419046</t>
-  </si>
-  <si>
-    <t>GERALD cancela tu ultima cuota 6614</t>
-  </si>
-  <si>
-    <t>936487944</t>
-  </si>
-  <si>
-    <t>CESAR cancela tu ultima cuota 28372</t>
-  </si>
-  <si>
-    <t>924398550</t>
-  </si>
-  <si>
-    <t>LUCIANA cancela tu ultima cuota 1946</t>
-  </si>
-  <si>
-    <t>980623559</t>
-  </si>
-  <si>
-    <t>ANGELICA cancela tu ultima cuota 5582</t>
-  </si>
-  <si>
-    <t>923525334</t>
-  </si>
-  <si>
-    <t>CESAR cancela tu ultima cuota 10228</t>
-  </si>
-  <si>
-    <t>43329259</t>
-  </si>
-  <si>
-    <t>EDITH cancela tu ultima cuota 551</t>
-  </si>
-  <si>
-    <t>960330664</t>
-  </si>
-  <si>
-    <t>DINA cancela tu ultima cuota 3867</t>
-  </si>
-  <si>
-    <t>954008906</t>
-  </si>
-  <si>
-    <t>FREDDY cancela tu ultima cuota 1970</t>
-  </si>
-  <si>
-    <t>924061097</t>
-  </si>
-  <si>
-    <t>AURA cancela tu ultima cuota 1280</t>
-  </si>
-  <si>
-    <t>906611914</t>
-  </si>
-  <si>
-    <t>VIVIANA cancela tu ultima cuota 429</t>
-  </si>
-  <si>
-    <t>954451835</t>
-  </si>
-  <si>
-    <t>SAUL cancela tu ultima cuota 535</t>
-  </si>
-  <si>
-    <t>962152547</t>
-  </si>
-  <si>
-    <t>RENZO cancela tu ultima cuota 2098</t>
-  </si>
-  <si>
-    <t>923505820</t>
-  </si>
-  <si>
-    <t>JOSE cancela tu ultima cuota 814</t>
-  </si>
-  <si>
-    <t>946739050</t>
-  </si>
-  <si>
-    <t>GALY cancela tu ultima cuota 911</t>
-  </si>
-  <si>
-    <t>939070390</t>
-  </si>
-  <si>
-    <t>JEAN cancela tu ultima cuota 27337</t>
-  </si>
-  <si>
-    <t>907012078</t>
-  </si>
-  <si>
-    <t>JAM cancela tu ultima cuota 383</t>
-  </si>
-  <si>
-    <t>988730864</t>
-  </si>
-  <si>
-    <t>ANATOLIA cancela tu ultima cuota 802</t>
-  </si>
-  <si>
-    <t>936708786</t>
-  </si>
-  <si>
-    <t>LILIANA cancela tu ultima cuota 623</t>
-  </si>
-  <si>
-    <t>995654847</t>
-  </si>
-  <si>
-    <t>LISBETH cancela tu ultima cuota 810</t>
-  </si>
-  <si>
-    <t>923682702</t>
-  </si>
-  <si>
-    <t>LUISA cancela tu ultima cuota 399</t>
-  </si>
-  <si>
-    <t>999791386</t>
-  </si>
-  <si>
-    <t>CLAUDIA cancela tu ultima cuota 1429</t>
-  </si>
-  <si>
-    <t>978861446</t>
-  </si>
-  <si>
-    <t>ELIZABETH cancela tu ultima cuota 3190</t>
-  </si>
-  <si>
-    <t>962666525</t>
-  </si>
-  <si>
-    <t>ALCIRA cancela tu ultima cuota 1628</t>
-  </si>
-  <si>
-    <t>952398056</t>
-  </si>
-  <si>
-    <t>PEDRO cancela tu ultima cuota 4733</t>
-  </si>
-  <si>
-    <t>995128589</t>
-  </si>
-  <si>
-    <t>WILLIANSS cancela tu ultima cuota 652</t>
-  </si>
-  <si>
-    <t>941520912</t>
-  </si>
-  <si>
-    <t>IRLANDA cancela tu ultima cuota 1463</t>
-  </si>
-  <si>
-    <t>988422463</t>
-  </si>
-  <si>
-    <t>ANITA cancela tu ultima cuota 1058</t>
-  </si>
-  <si>
-    <t>969226547</t>
-  </si>
-  <si>
-    <t>GLADYS cancela tu ultima cuota 1491</t>
-  </si>
-  <si>
-    <t>902511057</t>
-  </si>
-  <si>
-    <t>JESUS cancela tu ultima cuota 676</t>
-  </si>
-  <si>
-    <t>933643141</t>
-  </si>
-  <si>
-    <t>ALAIDA cancela tu ultima cuota 1049</t>
-  </si>
-  <si>
-    <t>999356919</t>
-  </si>
-  <si>
-    <t>MARITZA cancela tu ultima cuota 32241</t>
-  </si>
-  <si>
-    <t>971898869</t>
-  </si>
-  <si>
-    <t>NESTOR cancela tu ultima cuota 9518</t>
-  </si>
-  <si>
-    <t>971333834</t>
-  </si>
-  <si>
-    <t>CESAR cancela tu ultima cuota 1071</t>
-  </si>
-  <si>
-    <t>907961493</t>
-  </si>
-  <si>
-    <t>JUAN cancela tu ultima cuota 4452</t>
-  </si>
-  <si>
-    <t>949439034</t>
-  </si>
-  <si>
-    <t>LISBETH cancela tu ultima cuota 974</t>
-  </si>
-  <si>
-    <t>936426579</t>
-  </si>
-  <si>
-    <t>CINTHIA cancela tu ultima cuota 1512</t>
-  </si>
-  <si>
-    <t>922276136</t>
-  </si>
-  <si>
-    <t>LEVI cancela tu ultima cuota 16502</t>
-  </si>
-  <si>
-    <t>969991645</t>
-  </si>
-  <si>
-    <t>WALTER cancela tu ultima cuota 4514</t>
-  </si>
-  <si>
-    <t>961689384</t>
-  </si>
-  <si>
-    <t>ANGEL cancela tu ultima cuota 23452</t>
-  </si>
-  <si>
-    <t>978895133</t>
-  </si>
-  <si>
-    <t>CESAR cancela tu ultima cuota 633</t>
-  </si>
-  <si>
-    <t>976165678</t>
-  </si>
-  <si>
-    <t>ALBERTO cancela tu ultima cuota 10471</t>
-  </si>
-  <si>
-    <t>973825002</t>
-  </si>
-  <si>
-    <t>JOAQUIN cancela tu ultima cuota 372</t>
-  </si>
-  <si>
-    <t>973889887</t>
-  </si>
-  <si>
-    <t>NUBIA cancela tu ultima cuota 1362</t>
-  </si>
-  <si>
-    <t>995544296</t>
-  </si>
-  <si>
-    <t>ELADIO cancela tu ultima cuota 6377</t>
-  </si>
-  <si>
-    <t>920141001</t>
-  </si>
-  <si>
-    <t>MIRTHA cancela tu ultima cuota 1730</t>
-  </si>
-  <si>
-    <t>904949840</t>
-  </si>
-  <si>
-    <t>JOSE cancela tu ultima cuota 781</t>
-  </si>
-  <si>
-    <t>995354448</t>
-  </si>
-  <si>
-    <t>ISABEL cancela tu ultima cuota 9507</t>
-  </si>
-  <si>
-    <t>926668546</t>
-  </si>
-  <si>
-    <t>DEYSI cancela tu ultima cuota 30245</t>
-  </si>
-  <si>
-    <t>950858825</t>
-  </si>
-  <si>
-    <t>HERNAN cancela tu ultima cuota 528</t>
-  </si>
-  <si>
-    <t>902820329</t>
-  </si>
-  <si>
-    <t>SHELEY cancela tu ultima cuota 528</t>
-  </si>
-  <si>
-    <t>902216133</t>
-  </si>
-  <si>
-    <t>SILVIA cancela tu ultima cuota 2906</t>
-  </si>
-  <si>
-    <t>969188206</t>
-  </si>
-  <si>
-    <t>MELANY cancela tu ultima cuota 3116</t>
-  </si>
-  <si>
-    <t>962931037</t>
-  </si>
-  <si>
-    <t>VICTOR cancela tu ultima cuota 18383</t>
-  </si>
-  <si>
-    <t>990055523</t>
-  </si>
-  <si>
-    <t>MARIA cancela tu ultima cuota 2274</t>
-  </si>
-  <si>
-    <t>994102279</t>
-  </si>
-  <si>
-    <t>MILAGROS cancela tu ultima cuota 1310</t>
-  </si>
-  <si>
-    <t>954024753</t>
-  </si>
-  <si>
-    <t>SARA cancela tu ultima cuota 574</t>
-  </si>
-  <si>
-    <t>962526002</t>
-  </si>
-  <si>
-    <t>GREGORIO cancela tu ultima cuota 2243</t>
-  </si>
-  <si>
-    <t>944808964</t>
-  </si>
-  <si>
-    <t>GIANMARCO cancela tu ultima cuota 6473</t>
-  </si>
-  <si>
-    <t>929148796</t>
-  </si>
-  <si>
-    <t>FERNANDO cancela tu ultima cuota 624</t>
-  </si>
-  <si>
-    <t>923213258</t>
-  </si>
-  <si>
-    <t>SELMIRA cancela tu ultima cuota 1787</t>
-  </si>
-  <si>
-    <t>912633032</t>
-  </si>
-  <si>
-    <t>STEFANIA cancela tu ultima cuota 2167</t>
-  </si>
-  <si>
-    <t>958016825</t>
-  </si>
-  <si>
-    <t>ERINSON cancela tu ultima cuota 6443</t>
-  </si>
-  <si>
-    <t>966915834</t>
-  </si>
-  <si>
-    <t>DELIA cancela tu ultima cuota 634</t>
-  </si>
-  <si>
-    <t>984854513</t>
-  </si>
-  <si>
-    <t>MONICA cancela tu ultima cuota 1623</t>
-  </si>
-  <si>
-    <t>999274140</t>
-  </si>
-  <si>
-    <t>JORGE cancela tu ultima cuota 57681</t>
-  </si>
-  <si>
-    <t>980052855</t>
-  </si>
-  <si>
-    <t>ROSA cancela tu ultima cuota 1546</t>
-  </si>
-  <si>
-    <t>971195215</t>
-  </si>
-  <si>
-    <t>DENIS cancela tu ultima cuota 553</t>
-  </si>
-  <si>
-    <t>985767487</t>
-  </si>
-  <si>
-    <t>GISELA cancela tu ultima cuota 28954</t>
-  </si>
-  <si>
-    <t>985194328</t>
-  </si>
-  <si>
-    <t>ESTIB cancela tu ultima cuota 951</t>
-  </si>
-  <si>
-    <t>945797358</t>
-  </si>
-  <si>
-    <t>EDITH cancela tu ultima cuota 1880</t>
-  </si>
-  <si>
-    <t>995992207</t>
-  </si>
-  <si>
-    <t>VICTOR cancela tu ultima cuota 2221</t>
-  </si>
-  <si>
-    <t>988279405</t>
-  </si>
-  <si>
-    <t>ELISA cancela tu ultima cuota 709</t>
-  </si>
-  <si>
-    <t>947843501</t>
-  </si>
-  <si>
-    <t>ERICK cancela tu ultima cuota 7295</t>
-  </si>
-  <si>
-    <t>960869576</t>
-  </si>
-  <si>
-    <t>FREDY cancela tu ultima cuota 466</t>
-  </si>
-  <si>
-    <t>924668940</t>
-  </si>
-  <si>
-    <t>PAMELA cancela tu ultima cuota 11461</t>
-  </si>
-  <si>
-    <t>948948941</t>
-  </si>
-  <si>
-    <t>MILKA cancela tu ultima cuota 713</t>
-  </si>
-  <si>
-    <t>934572784</t>
-  </si>
-  <si>
-    <t>HILDA cancela tu ultima cuota 545</t>
-  </si>
-  <si>
-    <t>907745654</t>
-  </si>
-  <si>
-    <t>ANGUIE cancela tu ultima cuota 3557</t>
-  </si>
-  <si>
-    <t>980066247</t>
-  </si>
-  <si>
-    <t>STEFANIE cancela tu ultima cuota 806</t>
-  </si>
-  <si>
-    <t>945691972</t>
-  </si>
-  <si>
-    <t>YDA cancela tu ultima cuota 78909</t>
-  </si>
-  <si>
-    <t>998886036</t>
-  </si>
-  <si>
-    <t>PILAR cancela tu ultima cuota 1030</t>
-  </si>
-  <si>
-    <t>983935598</t>
-  </si>
-  <si>
-    <t>MARIA cancela tu ultima cuota 22156</t>
-  </si>
-  <si>
-    <t>922236737</t>
-  </si>
-  <si>
-    <t>JAIRO cancela tu ultima cuota 1512</t>
-  </si>
-  <si>
-    <t>988261223</t>
-  </si>
-  <si>
-    <t>ENRIQUE cancela tu ultima cuota 1895</t>
-  </si>
-  <si>
-    <t>990793424</t>
-  </si>
-  <si>
-    <t>GISELLA cancela tu ultima cuota 3950</t>
-  </si>
-  <si>
-    <t>932863202</t>
-  </si>
-  <si>
-    <t>OSCAR cancela tu ultima cuota 996</t>
-  </si>
-  <si>
-    <t>960115647</t>
-  </si>
-  <si>
-    <t>JORGE cancela tu ultima cuota 10507</t>
-  </si>
-  <si>
-    <t>947092863</t>
-  </si>
-  <si>
-    <t>JUAN cancela tu ultima cuota 369</t>
-  </si>
-  <si>
-    <t>969660148</t>
-  </si>
-  <si>
-    <t>VICTOR cancela tu ultima cuota 50902</t>
-  </si>
-  <si>
-    <t>975616801</t>
-  </si>
-  <si>
-    <t>ANGEL cancela tu ultima cuota 4606</t>
-  </si>
-  <si>
-    <t>955001258</t>
-  </si>
-  <si>
-    <t>RAFAEL cancela tu ultima cuota 428</t>
-  </si>
-  <si>
-    <t>902348692</t>
-  </si>
-  <si>
-    <t>HILARY cancela tu ultima cuota 2736</t>
-  </si>
-  <si>
-    <t>919527377</t>
-  </si>
-  <si>
-    <t>JULIA cancela tu ultima cuota 1676</t>
-  </si>
-  <si>
-    <t>938616625</t>
-  </si>
-  <si>
-    <t>ELIO cancela tu ultima cuota 2230</t>
-  </si>
-  <si>
-    <t>947544156</t>
-  </si>
-  <si>
-    <t>MIGUEL cancela tu ultima cuota 3238</t>
-  </si>
-  <si>
-    <t>933527075</t>
-  </si>
-  <si>
-    <t>CAROL cancela tu ultima cuota 2733</t>
-  </si>
-  <si>
-    <t>907804117</t>
-  </si>
-  <si>
-    <t>VICTOR cancela tu ultima cuota 4456</t>
-  </si>
-  <si>
-    <t>951489596</t>
-  </si>
-  <si>
-    <t>GIANINA cancela tu ultima cuota 5256</t>
-  </si>
-  <si>
-    <t>912604337</t>
-  </si>
-  <si>
-    <t>MISAEL cancela tu ultima cuota 25637</t>
-  </si>
-  <si>
-    <t>976799012</t>
-  </si>
-  <si>
-    <t>ASLY cancela tu ultima cuota 1987</t>
-  </si>
-  <si>
-    <t>969616118</t>
-  </si>
-  <si>
-    <t>SHIOMARA cancela tu ultima cuota 31960</t>
-  </si>
-  <si>
-    <t>995199157</t>
-  </si>
-  <si>
-    <t>CYNTHIA cancela tu ultima cuota 30660</t>
-  </si>
-  <si>
-    <t>990341214</t>
-  </si>
-  <si>
-    <t>MARIA cancela tu ultima cuota 17580</t>
-  </si>
-  <si>
-    <t>984001888</t>
-  </si>
-  <si>
-    <t>FRANCISCA cancela tu ultima cuota 445</t>
-  </si>
-  <si>
-    <t>920329264</t>
-  </si>
-  <si>
-    <t>EVANS cancela tu ultima cuota 1232</t>
-  </si>
-  <si>
-    <t>945954453</t>
-  </si>
-  <si>
-    <t>FIORELLA cancela tu ultima cuota 1483</t>
-  </si>
-  <si>
-    <t>988825523</t>
-  </si>
-  <si>
-    <t>MARISELA cancela tu ultima cuota 2081</t>
-  </si>
-  <si>
-    <t>968984645</t>
-  </si>
-  <si>
-    <t>CARLOS cancela tu ultima cuota 5174</t>
-  </si>
-  <si>
-    <t>971043999</t>
-  </si>
-  <si>
-    <t>MARIA cancela tu ultima cuota 16293</t>
-  </si>
-  <si>
-    <t>946001508</t>
-  </si>
-  <si>
-    <t>MILAGROS cancela tu ultima cuota 2135</t>
-  </si>
-  <si>
-    <t>951206334</t>
-  </si>
-  <si>
-    <t>MIRNA cancela tu ultima cuota 2902</t>
-  </si>
-  <si>
-    <t>980222877</t>
-  </si>
-  <si>
-    <t>ANA cancela tu ultima cuota 25578</t>
-  </si>
-  <si>
-    <t>912081448</t>
-  </si>
-  <si>
-    <t>ALVARO cancela tu ultima cuota 3468</t>
-  </si>
-  <si>
-    <t>932789525</t>
-  </si>
-  <si>
-    <t>OMAR cancela tu ultima cuota 1466</t>
-  </si>
-  <si>
-    <t>974932218</t>
-  </si>
-  <si>
-    <t>WILBER cancela tu ultima cuota 2366</t>
-  </si>
-  <si>
-    <t>968421293</t>
-  </si>
-  <si>
-    <t>ANTHONY cancela tu ultima cuota 2347</t>
-  </si>
-  <si>
-    <t>986339093</t>
-  </si>
-  <si>
-    <t>KEVIN cancela tu ultima cuota 522</t>
-  </si>
-  <si>
-    <t>995751559</t>
-  </si>
-  <si>
-    <t>NESTOR cancela tu ultima cuota 4626</t>
-  </si>
-  <si>
-    <t>983563521</t>
-  </si>
-  <si>
-    <t>EDUARDO cancela tu ultima cuota 52326</t>
-  </si>
-  <si>
-    <t>981273594</t>
-  </si>
-  <si>
-    <t>JEFFERSON cancela tu ultima cuota 9974</t>
-  </si>
-  <si>
-    <t>955540354</t>
-  </si>
-  <si>
-    <t>SILVANA cancela tu ultima cuota 308</t>
-  </si>
-  <si>
-    <t>924472229</t>
-  </si>
-  <si>
-    <t>MARYURI cancela tu ultima cuota 2436</t>
-  </si>
-  <si>
-    <t>968555491</t>
-  </si>
-  <si>
-    <t>WILFREDO cancela tu ultima cuota 47214</t>
-  </si>
-  <si>
-    <t>969991650</t>
-  </si>
-  <si>
-    <t>AUROPALDITA cancela tu ultima cuota 1255</t>
-  </si>
-  <si>
-    <t>922525430</t>
-  </si>
-  <si>
-    <t>LUCIA cancela tu ultima cuota 3031</t>
-  </si>
-  <si>
-    <t>980030684</t>
-  </si>
-  <si>
-    <t>MIGUEL cancela tu ultima cuota 769</t>
-  </si>
-  <si>
-    <t>937004606</t>
-  </si>
-  <si>
-    <t>DORIS cancela tu ultima cuota 1434</t>
-  </si>
-  <si>
-    <t>952527661</t>
-  </si>
-  <si>
-    <t>LUIS cancela tu ultima cuota 4890</t>
-  </si>
-  <si>
-    <t>999975601</t>
-  </si>
-  <si>
-    <t>EDUARDO cancela tu ultima cuota 7080</t>
-  </si>
-  <si>
-    <t>957854129</t>
-  </si>
-  <si>
-    <t>PABLO cancela tu ultima cuota 5932</t>
-  </si>
-  <si>
-    <t>949552938</t>
-  </si>
-  <si>
-    <t>GISSELA cancela tu ultima cuota 2741</t>
-  </si>
-  <si>
-    <t>951606198</t>
-  </si>
-  <si>
-    <t>GLADYS cancela tu ultima cuota 1000</t>
-  </si>
-  <si>
-    <t>960457637</t>
-  </si>
-  <si>
-    <t>RUTH cancela tu ultima cuota 739</t>
-  </si>
-  <si>
-    <t>995036272</t>
-  </si>
-  <si>
-    <t>FERNANDO cancela tu ultima cuota 23702</t>
-  </si>
-  <si>
-    <t>988049233</t>
-  </si>
-  <si>
-    <t>LOLA cancela tu ultima cuota 31273</t>
-  </si>
-  <si>
-    <t>977654181</t>
-  </si>
-  <si>
-    <t>JUAN cancela tu ultima cuota 1425</t>
-  </si>
-  <si>
-    <t>995898673</t>
-  </si>
-  <si>
-    <t>PETER cancela tu ultima cuota 72</t>
-  </si>
-  <si>
-    <t>980985222</t>
-  </si>
-  <si>
-    <t>ESTRELLA cancela tu ultima cuota 1527</t>
-  </si>
-  <si>
-    <t>902065347</t>
-  </si>
-  <si>
-    <t>IRENE cancela tu ultima cuota 1514</t>
-  </si>
-  <si>
-    <t>973705210</t>
-  </si>
-  <si>
-    <t>NARIFER cancela tu ultima cuota 380</t>
-  </si>
-  <si>
-    <t>958863760</t>
-  </si>
-  <si>
-    <t>HERZENT cancela tu ultima cuota 5729</t>
-  </si>
-  <si>
-    <t>956124667</t>
-  </si>
-  <si>
-    <t>DANIXZA cancela tu ultima cuota 3650</t>
-  </si>
-  <si>
-    <t>933091642</t>
-  </si>
-  <si>
-    <t>GUINA cancela tu ultima cuota 1954</t>
-  </si>
-  <si>
-    <t>923682366</t>
-  </si>
-  <si>
-    <t>JAVIER cancela tu ultima cuota 8626</t>
-  </si>
-  <si>
-    <t>977456691</t>
-  </si>
-  <si>
-    <t>JESUS cancela tu ultima cuota 2497</t>
-  </si>
-  <si>
-    <t>922007150</t>
-  </si>
-  <si>
-    <t>ALLISON cancela tu ultima cuota 583</t>
-  </si>
-  <si>
-    <t>995137309</t>
-  </si>
-  <si>
-    <t>VICTOR cancela tu ultima cuota 1253</t>
-  </si>
-  <si>
-    <t>980732064</t>
-  </si>
-  <si>
-    <t>MARIA cancela tu ultima cuota 1444</t>
-  </si>
-  <si>
-    <t>960983776</t>
-  </si>
-  <si>
-    <t>ARTEMIO cancela tu ultima cuota 36844</t>
-  </si>
-  <si>
-    <t>934332150</t>
-  </si>
-  <si>
-    <t>SARA cancela tu ultima cuota 34894</t>
-  </si>
-  <si>
-    <t>971667720</t>
-  </si>
-  <si>
-    <t>ELVI cancela tu ultima cuota 2850</t>
-  </si>
-  <si>
-    <t>923253150</t>
-  </si>
-  <si>
-    <t>CARLOS cancela tu ultima cuota 4293</t>
-  </si>
-  <si>
-    <t>995475772</t>
-  </si>
-  <si>
-    <t>LUZ cancela tu ultima cuota 2734</t>
-  </si>
-  <si>
-    <t>960167952</t>
-  </si>
-  <si>
-    <t>JHONATAN cancela tu ultima cuota 1536</t>
-  </si>
-  <si>
-    <t>964948584</t>
-  </si>
-  <si>
-    <t>WILFREDO cancela tu ultima cuota 570</t>
-  </si>
-  <si>
-    <t>936675536</t>
-  </si>
-  <si>
-    <t>FREDY cancela tu ultima cuota 1309</t>
-  </si>
-  <si>
-    <t>939913060</t>
-  </si>
-  <si>
-    <t>FABIOLA cancela tu ultima cuota 1615</t>
-  </si>
-  <si>
-    <t>902746810</t>
-  </si>
-  <si>
-    <t>MARCO cancela tu ultima cuota 351</t>
-  </si>
-  <si>
-    <t>996430328</t>
-  </si>
-  <si>
-    <t>MARGARETH cancela tu ultima cuota 985</t>
-  </si>
-  <si>
-    <t>960212410</t>
-  </si>
-  <si>
-    <t>MARIA cancela tu ultima cuota 850</t>
-  </si>
-  <si>
-    <t>924102829</t>
-  </si>
-  <si>
-    <t>RENZO cancela tu ultima cuota 5390</t>
-  </si>
-  <si>
-    <t>945118910</t>
-  </si>
-  <si>
-    <t>VICTORIA cancela tu ultima cuota 1352</t>
-  </si>
-  <si>
-    <t>966202962</t>
-  </si>
-  <si>
-    <t>JUANA cancela tu ultima cuota 13886</t>
-  </si>
-  <si>
-    <t>951666957</t>
-  </si>
-  <si>
-    <t>LUZ cancela tu ultima cuota 4949</t>
-  </si>
-  <si>
-    <t>979625448</t>
-  </si>
-  <si>
-    <t>MOIRA cancela tu ultima cuota 2843</t>
-  </si>
-  <si>
-    <t>923269348</t>
-  </si>
-  <si>
-    <t>GEORGINA cancela tu ultima cuota 3322</t>
-  </si>
-  <si>
-    <t>947064936</t>
-  </si>
-  <si>
-    <t>CARLOS cancela tu ultima cuota 4155</t>
-  </si>
-  <si>
-    <t>985067820</t>
-  </si>
-  <si>
-    <t>YESICA cancela tu ultima cuota 1939</t>
-  </si>
-  <si>
-    <t>933050507</t>
-  </si>
-  <si>
-    <t>YOVANNA cancela tu ultima cuota 32015</t>
-  </si>
-  <si>
-    <t>902873665</t>
-  </si>
-  <si>
-    <t>JUAN cancela tu ultima cuota 872</t>
-  </si>
-  <si>
-    <t>936223832</t>
-  </si>
-  <si>
-    <t>TATIANA cancela tu ultima cuota 5619</t>
-  </si>
-  <si>
-    <t>923527452</t>
-  </si>
-  <si>
-    <t>EDDHER cancela tu ultima cuota 1153</t>
-  </si>
-  <si>
-    <t>923128565</t>
-  </si>
-  <si>
-    <t>GENESIS cancela tu ultima cuota 3681</t>
-  </si>
-  <si>
-    <t>968479265</t>
-  </si>
-  <si>
-    <t>PAOLO cancela tu ultima cuota 1763</t>
-  </si>
-  <si>
-    <t>922131235</t>
-  </si>
-  <si>
-    <t>JULIO cancela tu ultima cuota 1150</t>
-  </si>
-  <si>
-    <t>923044737</t>
-  </si>
-  <si>
-    <t>HENRY cancela tu ultima cuota 9319</t>
-  </si>
-  <si>
-    <t>939667698</t>
-  </si>
-  <si>
-    <t>MARGARETH cancela tu ultima cuota 639</t>
-  </si>
-  <si>
-    <t>983584534</t>
-  </si>
-  <si>
-    <t>SULEIMA cancela tu ultima cuota 2086</t>
-  </si>
-  <si>
-    <t>950523423</t>
-  </si>
-  <si>
-    <t>ELIZABETH cancela tu ultima cuota 720</t>
-  </si>
-  <si>
-    <t>902347993</t>
-  </si>
-  <si>
-    <t>PRIMITIVA cancela tu ultima cuota 1138</t>
-  </si>
-  <si>
-    <t>922389849</t>
-  </si>
-  <si>
-    <t>DEIVID cancela tu ultima cuota 2206</t>
-  </si>
-  <si>
-    <t>902264472</t>
-  </si>
-  <si>
-    <t>MARCOS cancela tu ultima cuota 1762</t>
-  </si>
-  <si>
-    <t>998578875</t>
-  </si>
-  <si>
-    <t>SONIA cancela tu ultima cuota 2886</t>
-  </si>
-  <si>
-    <t>938323827</t>
-  </si>
-  <si>
-    <t>ELKY cancela tu ultima cuota 466</t>
-  </si>
-  <si>
-    <t>952685782</t>
-  </si>
-  <si>
-    <t>MEINY cancela tu ultima cuota 66915</t>
-  </si>
-  <si>
-    <t>975165200</t>
-  </si>
-  <si>
-    <t>EVELYN cancela tu ultima cuota 2376</t>
-  </si>
-  <si>
-    <t>934036803</t>
-  </si>
-  <si>
-    <t>VICTOR cancela tu ultima cuota 1682</t>
-  </si>
-  <si>
-    <t>922573082</t>
-  </si>
-  <si>
-    <t>WILLIAM cancela tu ultima cuota 2214</t>
-  </si>
-  <si>
-    <t>954953415</t>
-  </si>
-  <si>
-    <t>JHON cancela tu ultima cuota 1166</t>
-  </si>
-  <si>
-    <t>971639929</t>
-  </si>
-  <si>
-    <t>JAVIER cancela tu ultima cuota 1813</t>
-  </si>
-  <si>
-    <t>934558901</t>
-  </si>
-  <si>
-    <t>SARAI cancela tu ultima cuota 1684</t>
-  </si>
-  <si>
-    <t>979441815</t>
-  </si>
-  <si>
-    <t>MARIA cancela tu ultima cuota 463</t>
-  </si>
-  <si>
-    <t>906861941</t>
-  </si>
-  <si>
-    <t>JORGE cancela tu ultima cuota 4207</t>
-  </si>
-  <si>
-    <t>998895200</t>
-  </si>
-  <si>
-    <t>ANTONIO cancela tu ultima cuota 575</t>
-  </si>
-  <si>
-    <t>984617871</t>
-  </si>
-  <si>
-    <t>OLFER cancela tu ultima cuota 2990</t>
-  </si>
-  <si>
-    <t>922982364</t>
-  </si>
-  <si>
-    <t>JUAN cancela tu ultima cuota 3351</t>
-  </si>
-  <si>
-    <t>956400076</t>
-  </si>
-  <si>
-    <t>NYVIA cancela tu ultima cuota 2486</t>
-  </si>
-  <si>
-    <t>970972020</t>
-  </si>
-  <si>
-    <t>ENZO cancela tu ultima cuota 474</t>
-  </si>
-  <si>
-    <t>979014449</t>
-  </si>
-  <si>
-    <t>EDWIN cancela tu ultima cuota 1729</t>
-  </si>
-  <si>
-    <t>972622068</t>
-  </si>
-  <si>
-    <t>SAMUEL cancela tu ultima cuota 5882</t>
-  </si>
-  <si>
-    <t>908724287</t>
-  </si>
-  <si>
-    <t>MARIA cancela tu ultima cuota 571</t>
-  </si>
-  <si>
-    <t>971242579</t>
-  </si>
-  <si>
-    <t>CHRISTIAN cancela tu ultima cuota 36223</t>
-  </si>
-  <si>
-    <t>945547796</t>
-  </si>
-  <si>
-    <t>ROBERTO cancela tu ultima cuota 1145</t>
-  </si>
-  <si>
-    <t>923773192</t>
-  </si>
-  <si>
-    <t>BERONICA cancela tu ultima cuota 462</t>
-  </si>
-  <si>
-    <t>962134913</t>
-  </si>
-  <si>
-    <t>MARIA cancela tu ultima cuota 991</t>
-  </si>
-  <si>
-    <t>979620883</t>
-  </si>
-  <si>
-    <t>ELIZANGELLA cancela tu ultima cuota 4192</t>
-  </si>
-  <si>
-    <t>924825967</t>
-  </si>
-  <si>
-    <t>TATIANA cancela tu ultima cuota 1407</t>
-  </si>
-  <si>
-    <t>948132502</t>
-  </si>
-  <si>
-    <t>EDGAR cancela tu ultima cuota 4829</t>
-  </si>
-  <si>
-    <t>952549766</t>
-  </si>
-  <si>
-    <t>YENNYFER cancela tu ultima cuota 715</t>
-  </si>
-  <si>
-    <t>990346372</t>
-  </si>
-  <si>
-    <t>AYRTON cancela tu ultima cuota 6979</t>
-  </si>
-  <si>
-    <t>954850694</t>
-  </si>
-  <si>
-    <t>MELISSA cancela tu ultima cuota 1230</t>
-  </si>
-  <si>
-    <t>984517596</t>
-  </si>
-  <si>
-    <t>YOVER cancela tu ultima cuota 416</t>
-  </si>
-  <si>
-    <t>923507367</t>
-  </si>
-  <si>
-    <t>ISMAEL cancela tu ultima cuota 1626</t>
-  </si>
-  <si>
-    <t>908596919</t>
-  </si>
-  <si>
-    <t>OLIVIA cancela tu ultima cuota 1079</t>
-  </si>
-  <si>
-    <t>946533773</t>
-  </si>
-  <si>
-    <t>RICARDO cancela tu ultima cuota 23062</t>
-  </si>
-  <si>
-    <t>985232870</t>
-  </si>
-  <si>
-    <t>VICTOR cancela tu ultima cuota 29617</t>
-  </si>
-  <si>
-    <t>964801257</t>
-  </si>
-  <si>
-    <t>YURI cancela tu ultima cuota 1772</t>
-  </si>
-  <si>
-    <t>987279986</t>
-  </si>
-  <si>
-    <t>GIANNINA cancela tu ultima cuota 14538</t>
-  </si>
-  <si>
-    <t>975642808</t>
-  </si>
-  <si>
-    <t>JOSE cancela tu ultima cuota 3056</t>
-  </si>
-  <si>
-    <t>977805748</t>
-  </si>
-  <si>
-    <t>NELIDA cancela tu ultima cuota 2982</t>
-  </si>
-  <si>
-    <t>938256264</t>
-  </si>
-  <si>
-    <t>EDUARDO cancela tu ultima cuota 3580</t>
-  </si>
-  <si>
-    <t>938422124</t>
-  </si>
-  <si>
-    <t>MISHEL cancela tu ultima cuota 1584</t>
-  </si>
-  <si>
-    <t>924906717</t>
-  </si>
-  <si>
-    <t>PILAR cancela tu ultima cuota 1266</t>
-  </si>
-  <si>
-    <t>961677216</t>
-  </si>
-  <si>
-    <t>RUBEN cancela tu ultima cuota 554</t>
-  </si>
-  <si>
-    <t>975649104</t>
-  </si>
-  <si>
-    <t>HUGO cancela tu ultima cuota 6012</t>
-  </si>
-  <si>
-    <t>922851058</t>
-  </si>
-  <si>
-    <t>DEMOSTENES cancela tu ultima cuota 1560</t>
-  </si>
-  <si>
-    <t>952214274</t>
-  </si>
-  <si>
-    <t>RULY cancela tu ultima cuota 1407</t>
-  </si>
-  <si>
-    <t>952541007</t>
-  </si>
-  <si>
-    <t>SHIRLEY cancela tu ultima cuota 836</t>
-  </si>
-  <si>
-    <t>970141661</t>
-  </si>
-  <si>
-    <t>LUIS cancela tu ultima cuota 3847</t>
-  </si>
-  <si>
-    <t>933503510</t>
-  </si>
-  <si>
-    <t>JAVIER cancela tu ultima cuota 1079</t>
-  </si>
-  <si>
-    <t>946529665</t>
-  </si>
-  <si>
-    <t>SANDRA cancela tu ultima cuota 1123</t>
-  </si>
-  <si>
-    <t>922290347</t>
-  </si>
-  <si>
-    <t>JHONATAN cancela tu ultima cuota 3961</t>
-  </si>
-  <si>
-    <t>922562579</t>
-  </si>
-  <si>
-    <t>BRYAN cancela tu ultima cuota 3746</t>
-  </si>
-  <si>
-    <t>945387404</t>
-  </si>
-  <si>
-    <t>LUIS cancela tu ultima cuota 4368</t>
-  </si>
-  <si>
-    <t>904334353</t>
-  </si>
-  <si>
-    <t>FREDDY cancela tu ultima cuota 2982</t>
-  </si>
-  <si>
-    <t>975165209</t>
-  </si>
-  <si>
-    <t>ELENA cancela tu ultima cuota 1029</t>
-  </si>
-  <si>
-    <t>975930840</t>
-  </si>
-  <si>
-    <t>WILLIAM cancela tu ultima cuota 2726</t>
-  </si>
-  <si>
-    <t>957518785</t>
-  </si>
-  <si>
-    <t>LUZ cancela tu ultima cuota 1695</t>
-  </si>
-  <si>
-    <t>993804533</t>
-  </si>
-  <si>
-    <t>KELLY cancela tu ultima cuota 744</t>
-  </si>
-  <si>
-    <t>44222605</t>
-  </si>
-  <si>
-    <t>ROSA cancela tu ultima cuota 3613</t>
-  </si>
-  <si>
-    <t>960242077</t>
-  </si>
-  <si>
-    <t>YULIANA cancela tu ultima cuota 1430</t>
-  </si>
-  <si>
-    <t>996010286</t>
-  </si>
-  <si>
-    <t>DANIEL cancela tu ultima cuota 1576</t>
-  </si>
-  <si>
-    <t>958943617</t>
-  </si>
-  <si>
-    <t>WILHELM cancela tu ultima cuota 555</t>
-  </si>
-  <si>
-    <t>957818126</t>
-  </si>
-  <si>
-    <t>CLAUDIA cancela tu ultima cuota 48535</t>
-  </si>
-  <si>
-    <t>980481487</t>
-  </si>
-  <si>
-    <t>CECILIA cancela tu ultima cuota 4846</t>
-  </si>
-  <si>
-    <t>923194832</t>
-  </si>
-  <si>
-    <t>ROSA cancela tu ultima cuota 5117</t>
-  </si>
-  <si>
-    <t>960416010</t>
-  </si>
-  <si>
-    <t>VALERY cancela tu ultima cuota 621</t>
-  </si>
-  <si>
-    <t>947083716</t>
-  </si>
-  <si>
-    <t>YOLANDA cancela tu ultima cuota 1651</t>
-  </si>
-  <si>
-    <t>995811244</t>
-  </si>
-  <si>
-    <t>VICTOR cancela tu ultima cuota 1725</t>
-  </si>
-  <si>
-    <t>924501617</t>
-  </si>
-  <si>
-    <t>JEANN cancela tu ultima cuota 1202</t>
-  </si>
-  <si>
-    <t>920389320</t>
-  </si>
-  <si>
-    <t>REYNALDO cancela tu ultima cuota 4944</t>
-  </si>
-  <si>
-    <t>934551455</t>
-  </si>
-  <si>
-    <t>LIZ cancela tu ultima cuota 758</t>
-  </si>
-  <si>
-    <t>937648391</t>
-  </si>
-  <si>
-    <t>GIULIANA cancela tu ultima cuota 1028</t>
-  </si>
-  <si>
-    <t>937279638</t>
-  </si>
-  <si>
-    <t>LUISA cancela tu ultima cuota 3129</t>
-  </si>
-  <si>
-    <t>974961233</t>
-  </si>
-  <si>
-    <t>JHONNY cancela tu ultima cuota 5206</t>
-  </si>
-  <si>
-    <t>948188916</t>
-  </si>
-  <si>
-    <t>LEONARDO cancela tu ultima cuota 584</t>
-  </si>
-  <si>
-    <t>965989558</t>
-  </si>
-  <si>
-    <t>WALDEMAR cancela tu ultima cuota 3136</t>
-  </si>
-  <si>
-    <t>955232875</t>
-  </si>
-  <si>
-    <t>DAYANA cancela tu ultima cuota 1453</t>
-  </si>
-  <si>
-    <t>939139854</t>
-  </si>
-  <si>
-    <t>NORMA cancela tu ultima cuota 579</t>
-  </si>
-  <si>
-    <t>920669940</t>
-  </si>
-  <si>
-    <t>MARIA cancela tu ultima cuota 74320</t>
-  </si>
-  <si>
-    <t>958694540</t>
-  </si>
-  <si>
-    <t>LUIS cancela tu ultima cuota 1592</t>
-  </si>
-  <si>
-    <t>968451215</t>
-  </si>
-  <si>
-    <t>EMMA cancela tu ultima cuota 1658</t>
-  </si>
-  <si>
-    <t>978435811</t>
-  </si>
-  <si>
-    <t>WALTER cancela tu ultima cuota 36731</t>
-  </si>
-  <si>
-    <t>902875317</t>
-  </si>
-  <si>
-    <t>BRAYAN cancela tu ultima cuota 5613</t>
-  </si>
-  <si>
-    <t>990652777</t>
-  </si>
-  <si>
-    <t>CARLOS cancela tu ultima cuota 2172</t>
-  </si>
-  <si>
-    <t>933587904</t>
-  </si>
-  <si>
-    <t>ANGEL cancela tu ultima cuota 725</t>
-  </si>
-  <si>
-    <t>926628959</t>
-  </si>
-  <si>
-    <t>JOHN cancela tu ultima cuota 3851</t>
-  </si>
-  <si>
-    <t>920445360</t>
-  </si>
-  <si>
-    <t>MARIA cancela tu ultima cuota 1592</t>
-  </si>
-  <si>
-    <t>902737644</t>
-  </si>
-  <si>
-    <t>GEORGINA cancela tu ultima cuota 1015</t>
-  </si>
-  <si>
-    <t>924276289</t>
-  </si>
-  <si>
-    <t>ELIZABETH cancela tu ultima cuota 16146</t>
-  </si>
-  <si>
-    <t>947349012</t>
-  </si>
-  <si>
-    <t>YOLANDA cancela tu ultima cuota 3570</t>
-  </si>
-  <si>
-    <t>990448263</t>
-  </si>
-  <si>
-    <t>WINCLER cancela tu ultima cuota 1358</t>
-  </si>
-  <si>
-    <t>934478068</t>
-  </si>
-  <si>
-    <t>JAMES cancela tu ultima cuota 1771</t>
-  </si>
-  <si>
-    <t>945356972</t>
-  </si>
-  <si>
-    <t>YADIRA cancela tu ultima cuota 3730</t>
-  </si>
-  <si>
-    <t>961950019</t>
-  </si>
-  <si>
-    <t>FREDDY cancela tu ultima cuota 4267</t>
-  </si>
-  <si>
-    <t>912200877</t>
-  </si>
-  <si>
-    <t>MARCOS cancela tu ultima cuota 533</t>
-  </si>
-  <si>
-    <t>985488101</t>
-  </si>
-  <si>
-    <t>CHELSA cancela tu ultima cuota 4469</t>
-  </si>
-  <si>
-    <t>956136653</t>
-  </si>
-  <si>
-    <t>SARIAH cancela tu ultima cuota 1598</t>
-  </si>
-  <si>
-    <t>960734536</t>
-  </si>
-  <si>
-    <t>ALESSANDRA cancela tu ultima cuota 3927</t>
-  </si>
-  <si>
-    <t>977973293</t>
-  </si>
-  <si>
-    <t>EMILY cancela tu ultima cuota 3474</t>
-  </si>
-  <si>
-    <t>938665071</t>
-  </si>
-  <si>
-    <t>KATHERINE cancela tu ultima cuota 3555</t>
-  </si>
-  <si>
-    <t>978007979</t>
-  </si>
-  <si>
-    <t>WILBER cancela tu ultima cuota 27</t>
+    <t>916687455</t>
+  </si>
+  <si>
+    <t>CHARITO, tienes un pago vencido de S/206. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>993274903</t>
+  </si>
+  <si>
+    <t>MARIVEL, tienes un pago vencido de S/375. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>966760697</t>
+  </si>
+  <si>
+    <t>ENIO, tienes un pago vencido de S/1525. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>JESUS, tienes un pago vencido de S/500. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>994053674</t>
+  </si>
+  <si>
+    <t>MARIO, tienes un pago vencido de S/400. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>955330668</t>
+  </si>
+  <si>
+    <t>ANA, tienes un pago vencido de S/200. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>977205435</t>
+  </si>
+  <si>
+    <t>MARIELLA, tienes un pago vencido de S/285. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>995558877</t>
+  </si>
+  <si>
+    <t>CLAUDIO, tienes un pago vencido de S/515. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>956371338</t>
+  </si>
+  <si>
+    <t>SANTOS, tienes un pago vencido de S/152. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>999988977</t>
+  </si>
+  <si>
+    <t>JANETT, tienes un pago vencido de S/440. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>967750654</t>
+  </si>
+  <si>
+    <t>CARMEN, tienes un pago vencido de S/59. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>921495294</t>
+  </si>
+  <si>
+    <t>ESTHER, tienes un pago vencido de S/94. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>991756489</t>
+  </si>
+  <si>
+    <t>JUAN, tienes un pago vencido de S/2000. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>996640518</t>
+  </si>
+  <si>
+    <t>HUMBERTO, tienes un pago vencido de S/1150. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>943464703</t>
+  </si>
+  <si>
+    <t>JORGE, tienes un pago vencido de S/407. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>998427162</t>
+  </si>
+  <si>
+    <t>ELIAS, tienes un pago vencido de S/2355. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>991451238</t>
+  </si>
+  <si>
+    <t>SANDRA, tienes un pago vencido de S/2200. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>955174103</t>
+  </si>
+  <si>
+    <t>ROSALINDA, tienes un pago vencido de S/122. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>976020535</t>
+  </si>
+  <si>
+    <t>MARIA, tienes un pago vencido de S/1000. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>969145677</t>
+  </si>
+  <si>
+    <t>ANTONIA, tienes un pago vencido de S/895. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>994232728</t>
+  </si>
+  <si>
+    <t>CESAR, tienes un pago vencido de S/4789. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>981455963</t>
+  </si>
+  <si>
+    <t>MIGUEL, tienes un pago vencido de S/1070. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>957453154</t>
+  </si>
+  <si>
+    <t>BEATRIZ, tienes un pago vencido de S/500. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>949308740</t>
+  </si>
+  <si>
+    <t>GONZALO, tienes un pago vencido de S/170. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>922987617</t>
+  </si>
+  <si>
+    <t>GABY, tienes un pago vencido de S/1500. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>946336472</t>
+  </si>
+  <si>
+    <t>MARIBEL, tienes un pago vencido de S/900. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>996769840</t>
+  </si>
+  <si>
+    <t>NOEMI, tienes un pago vencido de S/565. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>999055555</t>
+  </si>
+  <si>
+    <t>SANTA, tienes un pago vencido de S/135. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>949124888</t>
+  </si>
+  <si>
+    <t>TERESA, tienes un pago vencido de S/390. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>923850738</t>
+  </si>
+  <si>
+    <t>ERNESTO, tienes un pago vencido de S/410. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>997932893</t>
+  </si>
+  <si>
+    <t>GISELLE, tienes un pago vencido de S/3700. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>943454181</t>
+  </si>
+  <si>
+    <t>GLADYS, tienes un pago vencido de S/4250. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>986473682</t>
+  </si>
+  <si>
+    <t>JHON, tienes un pago vencido de S/1140. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>963335530</t>
+  </si>
+  <si>
+    <t>MEDALID, tienes un pago vencido de S/500. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>902630612</t>
+  </si>
+  <si>
+    <t>MIRIAM, tienes un pago vencido de S/200. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>978822323</t>
+  </si>
+  <si>
+    <t>LITA, tienes un pago vencido de S/60. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>964717659</t>
+  </si>
+  <si>
+    <t>MARIA, tienes un pago vencido de S/608. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>985149257</t>
+  </si>
+  <si>
+    <t>JOSE, tienes un pago vencido de S/2305. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>956145604</t>
+  </si>
+  <si>
+    <t>VICENTE, tienes un pago vencido de S/550. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>919068423</t>
+  </si>
+  <si>
+    <t>HENRY, tienes un pago vencido de S/1700. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>940307083</t>
+  </si>
+  <si>
+    <t>ANDREA, tienes un pago vencido de S/970. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>988352588</t>
+  </si>
+  <si>
+    <t>GLORIA, tienes un pago vencido de S/5000. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>960703699</t>
+  </si>
+  <si>
+    <t>CRISTEL, tienes un pago vencido de S/122. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>940196883</t>
+  </si>
+  <si>
+    <t>FABIOLA, tienes un pago vencido de S/2000. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>918707311</t>
+  </si>
+  <si>
+    <t>NELIDA, tienes un pago vencido de S/5000. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>967921117</t>
+  </si>
+  <si>
+    <t>GENOVEVA, tienes un pago vencido de S/1160. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>949804191</t>
+  </si>
+  <si>
+    <t>KELLER, tienes un pago vencido de S/806. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>994686923</t>
+  </si>
+  <si>
+    <t>DARWIN, tienes un pago vencido de S/8000. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>987311398</t>
+  </si>
+  <si>
+    <t>ARTURO, tienes un pago vencido de S/696. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>981284649</t>
+  </si>
+  <si>
+    <t>ARMANDO, tienes un pago vencido de S/445. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>997090527</t>
+  </si>
+  <si>
+    <t>GISELLA, tienes un pago vencido de S/765. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>997065111</t>
+  </si>
+  <si>
+    <t>ANA, tienes un pago vencido de S/1761. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>931113213</t>
+  </si>
+  <si>
+    <t>MILAGROS, tienes un pago vencido de S/906. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>979172158</t>
+  </si>
+  <si>
+    <t>ROSA, tienes un pago vencido de S/1000. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>976786847</t>
+  </si>
+  <si>
+    <t>MARLENI, tienes un pago vencido de S/120. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>987342744</t>
+  </si>
+  <si>
+    <t>ESPERANZA, tienes un pago vencido de S/70. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>949639231</t>
+  </si>
+  <si>
+    <t>TEOFISTO, tienes un pago vencido de S/700. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>996759676</t>
+  </si>
+  <si>
+    <t>MARIA, tienes un pago vencido de S/350. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>958200523</t>
+  </si>
+  <si>
+    <t>ISAIAS, tienes un pago vencido de S/595. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>952602379</t>
+  </si>
+  <si>
+    <t>YOICE, tienes un pago vencido de S/3500. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>974762056</t>
+  </si>
+  <si>
+    <t>BERNARDO, tienes un pago vencido de S/2000. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>985484109</t>
+  </si>
+  <si>
+    <t>SILVIA, tienes un pago vencido de S/825. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>992881506</t>
+  </si>
+  <si>
+    <t>MARLENI, tienes un pago vencido de S/597. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>960616020</t>
+  </si>
+  <si>
+    <t>FRANCISCO, tienes un pago vencido de S/800. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>942469637</t>
+  </si>
+  <si>
+    <t>GREEN, tienes un pago vencido de S/1000. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>923910069</t>
+  </si>
+  <si>
+    <t>PEDRO, tienes un pago vencido de S/64. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>943720706</t>
+  </si>
+  <si>
+    <t>LOURDES, tienes un pago vencido de S/745. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>958810534</t>
+  </si>
+  <si>
+    <t>JUAN, tienes un pago vencido de S/1354. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>969226046</t>
+  </si>
+  <si>
+    <t>GIULIANA, tienes un pago vencido de S/700. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>983823757</t>
+  </si>
+  <si>
+    <t>JILL, tienes un pago vencido de S/1000. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>923617285</t>
+  </si>
+  <si>
+    <t>JUAN, tienes un pago vencido de S/1132. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>920752275</t>
+  </si>
+  <si>
+    <t>CRISTIAN, tienes un pago vencido de S/915. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>989405519</t>
+  </si>
+  <si>
+    <t>GLADYS, tienes un pago vencido de S/500. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>922856379</t>
+  </si>
+  <si>
+    <t>TEDDY, tienes un pago vencido de S/200. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>923798144</t>
+  </si>
+  <si>
+    <t>OLMEDO, tienes un pago vencido de S/3985. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>964067337</t>
+  </si>
+  <si>
+    <t>YANNINA, tienes un pago vencido de S/303. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>981559648</t>
+  </si>
+  <si>
+    <t>JORGE, tienes un pago vencido de S/30. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>958348357</t>
+  </si>
+  <si>
+    <t>SAMY, tienes un pago vencido de S/1900. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>939030790</t>
+  </si>
+  <si>
+    <t>EDITH, tienes un pago vencido de S/1163. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>982111365</t>
+  </si>
+  <si>
+    <t>CRISTHIAN, tienes un pago vencido de S/400. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>982070156</t>
+  </si>
+  <si>
+    <t>JOHAN, tienes un pago vencido de S/330. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>974853493</t>
+  </si>
+  <si>
+    <t>ERNESTO, tienes un pago vencido de S/1100. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>991076782</t>
+  </si>
+  <si>
+    <t>MIGUEL, tienes un pago vencido de S/550. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>939246467</t>
+  </si>
+  <si>
+    <t>NADIA, tienes un pago vencido de S/1212. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>995848831</t>
+  </si>
+  <si>
+    <t>PEDRO, tienes un pago vencido de S/795. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>940216325</t>
+  </si>
+  <si>
+    <t>KARINA, tienes un pago vencido de S/1600. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>994325066</t>
+  </si>
+  <si>
+    <t>JONNY, tienes un pago vencido de S/925. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>995959637</t>
+  </si>
+  <si>
+    <t>EMILY, tienes un pago vencido de S/1120. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>962980076</t>
+  </si>
+  <si>
+    <t>FREDY, tienes un pago vencido de S/2500. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>968058745</t>
+  </si>
+  <si>
+    <t>LUIS, tienes un pago vencido de S/400. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>978731262</t>
+  </si>
+  <si>
+    <t>ELMER, tienes un pago vencido de S/737. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>940310581</t>
+  </si>
+  <si>
+    <t>GERMAN, tienes un pago vencido de S/1080. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>954468241</t>
+  </si>
+  <si>
+    <t>JORGE, tienes un pago vencido de S/980. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>969734918</t>
+  </si>
+  <si>
+    <t>CESAR, tienes un pago vencido de S/246. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>950962366</t>
+  </si>
+  <si>
+    <t>GLADYS, tienes un pago vencido de S/790. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>972656899</t>
+  </si>
+  <si>
+    <t>959131116</t>
+  </si>
+  <si>
+    <t>SOLANGE, tienes un pago vencido de S/223. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>980412664</t>
+  </si>
+  <si>
+    <t>PATRICIA, tienes un pago vencido de S/500. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>LUIS, tienes un pago vencido de S/39172. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>989774441</t>
+  </si>
+  <si>
+    <t>ROSARIO, tienes un pago vencido de S/765. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>995198028</t>
+  </si>
+  <si>
+    <t>JESLY, tienes un pago vencido de S/2710. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>995608400</t>
+  </si>
+  <si>
+    <t>GYSENIA, tienes un pago vencido de S/590. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>939906152</t>
+  </si>
+  <si>
+    <t>RAUL, tienes un pago vencido de S/570. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>953943507</t>
+  </si>
+  <si>
+    <t>JOSE, tienes un pago vencido de S/728. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>971075692</t>
+  </si>
+  <si>
+    <t>CLAUDIA, tienes un pago vencido de S/254. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>998291708</t>
+  </si>
+  <si>
+    <t>ANTHONY, tienes un pago vencido de S/3150. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>987403242</t>
+  </si>
+  <si>
+    <t>LUIS, tienes un pago vencido de S/120. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>994156311</t>
+  </si>
+  <si>
+    <t>ROBERTO, tienes un pago vencido de S/2800. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>901159874</t>
+  </si>
+  <si>
+    <t>MARITZA, tienes un pago vencido de S/1600. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>987160930</t>
+  </si>
+  <si>
+    <t>MARIA, tienes un pago vencido de S/2126. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>970740948</t>
+  </si>
+  <si>
+    <t>JOSE, tienes un pago vencido de S/1241. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>957585602</t>
+  </si>
+  <si>
+    <t>EDGAR, tienes un pago vencido de S/390. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>957398323</t>
+  </si>
+  <si>
+    <t>DARIO, tienes un pago vencido de S/600. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>921626610</t>
+  </si>
+  <si>
+    <t>NOEMI, tienes un pago vencido de S/300. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>993152808</t>
+  </si>
+  <si>
+    <t>JEISLI, tienes un pago vencido de S/125. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>913424080</t>
+  </si>
+  <si>
+    <t>ANDRES, tienes un pago vencido de S/300. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>927002876</t>
+  </si>
+  <si>
+    <t>JESUS, tienes un pago vencido de S/800. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>983303975</t>
+  </si>
+  <si>
+    <t>MANUEL, tienes un pago vencido de S/2500. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>933584769</t>
+  </si>
+  <si>
+    <t>JULIO, tienes un pago vencido de S/250. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>965453645</t>
+  </si>
+  <si>
+    <t>RENZO, tienes un pago vencido de S/610. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>991617489</t>
+  </si>
+  <si>
+    <t>JUAN, tienes un pago vencido de S/1200. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>993885444</t>
+  </si>
+  <si>
+    <t>ZULAY, tienes un pago vencido de S/1200. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>950913357</t>
+  </si>
+  <si>
+    <t>OSMAR, tienes un pago vencido de S/500. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>967148526</t>
+  </si>
+  <si>
+    <t>YAMILET, tienes un pago vencido de S/200. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>988887890</t>
+  </si>
+  <si>
+    <t>GISELA, tienes un pago vencido de S/300. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>953623392</t>
+  </si>
+  <si>
+    <t>CLEVER, tienes un pago vencido de S/700. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>931412137</t>
+  </si>
+  <si>
+    <t>MELISSA, tienes un pago vencido de S/1170. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>927530358</t>
+  </si>
+  <si>
+    <t>ANA, tienes un pago vencido de S/1000. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>930931458</t>
+  </si>
+  <si>
+    <t>JOSE, tienes un pago vencido de S/1700. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>957304148</t>
+  </si>
+  <si>
+    <t>MARCO, tienes un pago vencido de S/1100. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>945390265</t>
+  </si>
+  <si>
+    <t>MARITZA, tienes un pago vencido de S/2500. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>953281097</t>
+  </si>
+  <si>
+    <t>JHON, tienes un pago vencido de S/6500. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>968533332</t>
+  </si>
+  <si>
+    <t>GLORIA, tienes un pago vencido de S/316. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>968186050</t>
+  </si>
+  <si>
+    <t>MIGUEL, tienes un pago vencido de S/1200. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>993238919</t>
+  </si>
+  <si>
+    <t>EDIN, tienes un pago vencido de S/700. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>984722009</t>
+  </si>
+  <si>
+    <t>ANGELICA, tienes un pago vencido de S/1011. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>939256977</t>
+  </si>
+  <si>
+    <t>JORGE, tienes un pago vencido de S/1000. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>943541881</t>
+  </si>
+  <si>
+    <t>ERICKSON, tienes un pago vencido de S/760. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>935019344</t>
+  </si>
+  <si>
+    <t>JOSE, tienes un pago vencido de S/220. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>992993695</t>
+  </si>
+  <si>
+    <t>CESAR, tienes un pago vencido de S/885. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>948265510</t>
+  </si>
+  <si>
+    <t>DAFNNI, tienes un pago vencido de S/200. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>915155806</t>
+  </si>
+  <si>
+    <t>LUIS, tienes un pago vencido de S/970. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>971518008</t>
+  </si>
+  <si>
+    <t>MARCO, tienes un pago vencido de S/130. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>981896215</t>
+  </si>
+  <si>
+    <t>CARLOS, tienes un pago vencido de S/2080. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>916843329</t>
+  </si>
+  <si>
+    <t>ROSA, tienes un pago vencido de S/570. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>929365591</t>
+  </si>
+  <si>
+    <t>ROBERT, tienes un pago vencido de S/910. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>957195122</t>
+  </si>
+  <si>
+    <t>RUDY, tienes un pago vencido de S/3115. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>989531896</t>
+  </si>
+  <si>
+    <t>JONATHAN, tienes un pago vencido de S/300. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>992626326</t>
+  </si>
+  <si>
+    <t>RICHAR, tienes un pago vencido de S/952. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>984303211</t>
+  </si>
+  <si>
+    <t>RODOLFO, tienes un pago vencido de S/1350. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>917853476</t>
+  </si>
+  <si>
+    <t>DOANI, tienes un pago vencido de S/1000. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>940633314</t>
+  </si>
+  <si>
+    <t>BRUCEIDA, tienes un pago vencido de S/452. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>918388594</t>
+  </si>
+  <si>
+    <t>PILAR, tienes un pago vencido de S/452. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>986147643</t>
+  </si>
+  <si>
+    <t>RUBEN, tienes un pago vencido de S/607. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>974834506</t>
+  </si>
+  <si>
+    <t>JOSE, tienes un pago vencido de S/989. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>970486751</t>
+  </si>
+  <si>
+    <t>MIGUEL, tienes un pago vencido de S/1100. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>922136942</t>
+  </si>
+  <si>
+    <t>DARLI, tienes un pago vencido de S/1000. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>991188132</t>
+  </si>
+  <si>
+    <t>RAUL, tienes un pago vencido de S/600. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>978134631</t>
+  </si>
+  <si>
+    <t>ASTRID, tienes un pago vencido de S/226. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>938855525</t>
+  </si>
+  <si>
+    <t>CARMEN, tienes un pago vencido de S/2500. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>924941908</t>
+  </si>
+  <si>
+    <t>YESSICA, tienes un pago vencido de S/508. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>980693762</t>
+  </si>
+  <si>
+    <t>YARALDY, tienes un pago vencido de S/698. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>924548086</t>
+  </si>
+  <si>
+    <t>IRAIDA, tienes un pago vencido de S/980. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>970880305</t>
+  </si>
+  <si>
+    <t>MARIA, tienes un pago vencido de S/460. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>965851296</t>
+  </si>
+  <si>
+    <t>MARILU, tienes un pago vencido de S/100. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>900969125</t>
+  </si>
+  <si>
+    <t>DAVID, tienes un pago vencido de S/200. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>927480240</t>
+  </si>
+  <si>
+    <t>MAYCOLL, tienes un pago vencido de S/40. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>942632129</t>
+  </si>
+  <si>
+    <t>MILY, tienes un pago vencido de S/1605. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>928557660</t>
+  </si>
+  <si>
+    <t>JAVIER, tienes un pago vencido de S/281. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>986260205</t>
+  </si>
+  <si>
+    <t>CARLITA, tienes un pago vencido de S/300. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>979644366</t>
+  </si>
+  <si>
+    <t>DONATO, tienes un pago vencido de S/870. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>977575389</t>
+  </si>
+  <si>
+    <t>ANA, tienes un pago vencido de S/400. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>921781061</t>
+  </si>
+  <si>
+    <t>LIZBET, tienes un pago vencido de S/1170. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>969286798</t>
+  </si>
+  <si>
+    <t>JAIME, tienes un pago vencido de S/619. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>997641498</t>
+  </si>
+  <si>
+    <t>NINOSCA, tienes un pago vencido de S/571. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>955174995</t>
+  </si>
+  <si>
+    <t>NAIVA, tienes un pago vencido de S/820. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>954651172</t>
+  </si>
+  <si>
+    <t>MARICIELO, tienes un pago vencido de S/890. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>916058748</t>
+  </si>
+  <si>
+    <t>AUGUSTO, tienes un pago vencido de S/920. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>918383912</t>
+  </si>
+  <si>
+    <t>JONATAN, tienes un pago vencido de S/800. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>946933560</t>
+  </si>
+  <si>
+    <t>MARCO, tienes un pago vencido de S/100. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>968803665</t>
+  </si>
+  <si>
+    <t>LIZBETH, tienes un pago vencido de S/235. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>960870659</t>
+  </si>
+  <si>
+    <t>VANNIA, tienes un pago vencido de S/1500. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>989947142</t>
+  </si>
+  <si>
+    <t>JOSE, tienes un pago vencido de S/433. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>924604432</t>
+  </si>
+  <si>
+    <t>JONATHAN, tienes un pago vencido de S/776. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>981356142</t>
+  </si>
+  <si>
+    <t>ANA, tienes un pago vencido de S/1400. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>952023260</t>
+  </si>
+  <si>
+    <t>LEONARDO, tienes un pago vencido de S/510. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>931927959</t>
+  </si>
+  <si>
+    <t>VICTOR, tienes un pago vencido de S/1100. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>982656682</t>
+  </si>
+  <si>
+    <t>ERICK, tienes un pago vencido de S/6600. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>938872866</t>
+  </si>
+  <si>
+    <t>ELMER, tienes un pago vencido de S/85. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>984163622</t>
+  </si>
+  <si>
+    <t>JUVENAL, tienes un pago vencido de S/500. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>918523357</t>
+  </si>
+  <si>
+    <t>JUAN, tienes un pago vencido de S/1715. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>956432078</t>
+  </si>
+  <si>
+    <t>SANDRA, tienes un pago vencido de S/588. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>979036960</t>
+  </si>
+  <si>
+    <t>URSULA, tienes un pago vencido de S/2110. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>927787893</t>
+  </si>
+  <si>
+    <t>MARIA, tienes un pago vencido de S/922. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>934600749</t>
+  </si>
+  <si>
+    <t>JUNIOR, tienes un pago vencido de S/335. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>979745960</t>
+  </si>
+  <si>
+    <t>DEYANIRA, tienes un pago vencido de S/1200. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>970590930</t>
+  </si>
+  <si>
+    <t>NATHALY, tienes un pago vencido de S/961. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>992706051</t>
+  </si>
+  <si>
+    <t>STEPHANIE, tienes un pago vencido de S/500. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>997356671</t>
+  </si>
+  <si>
+    <t>HENRY, tienes un pago vencido de S/593. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>962739194</t>
+  </si>
+  <si>
+    <t>CAROLINA, tienes un pago vencido de S/2115. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>952754801</t>
+  </si>
+  <si>
+    <t>CESAR, tienes un pago vencido de S/500. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>966341977</t>
+  </si>
+  <si>
+    <t>MIGUEL, tienes un pago vencido de S/1700. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>912761667</t>
+  </si>
+  <si>
+    <t>JHOON, tienes un pago vencido de S/1000. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>925956664</t>
+  </si>
+  <si>
+    <t>MANUEL, tienes un pago vencido de S/815. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>982743637</t>
+  </si>
+  <si>
+    <t>SHAMIRA, tienes un pago vencido de S/450. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>963128679</t>
+  </si>
+  <si>
+    <t>CARLOS, tienes un pago vencido de S/400. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>903449205</t>
+  </si>
+  <si>
+    <t>JOSUE, tienes un pago vencido de S/740. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>913886064</t>
+  </si>
+  <si>
+    <t>MIJAEL, tienes un pago vencido de S/95. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>935492199</t>
+  </si>
+  <si>
+    <t>JUDITH, tienes un pago vencido de S/650. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>969581395</t>
+  </si>
+  <si>
+    <t>KENLY, tienes un pago vencido de S/950. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>938750762</t>
+  </si>
+  <si>
+    <t>ANTHONELLA, tienes un pago vencido de S/1850. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>978627940</t>
+  </si>
+  <si>
+    <t>YORDANO, tienes un pago vencido de S/454. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>941944124</t>
+  </si>
+  <si>
+    <t>MARIANA, tienes un pago vencido de S/516. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>912108036</t>
+  </si>
+  <si>
+    <t>GIANCARLO, tienes un pago vencido de S/470. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>981350856</t>
+  </si>
+  <si>
+    <t>MIGUEL, tienes un pago vencido de S/1090. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>967947758</t>
+  </si>
+  <si>
+    <t>LEONARDO, tienes un pago vencido de S/870. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>930670300</t>
+  </si>
+  <si>
+    <t>ALEXANDRA, tienes un pago vencido de S/2106. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>995558810</t>
+  </si>
+  <si>
+    <t>CAMILA, tienes un pago vencido de S/4. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>906251366</t>
+  </si>
+  <si>
+    <t>ROCIO, tienes un pago vencido de S/965. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>938781968</t>
+  </si>
+  <si>
+    <t>MARIA, tienes un pago vencido de S/470. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>928827673</t>
+  </si>
+  <si>
+    <t>YERSON, tienes un pago vencido de S/2404. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>956724663</t>
+  </si>
+  <si>
+    <t>CHRISTY, tienes un pago vencido de S/2040. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>982910784</t>
+  </si>
+  <si>
+    <t>FLOR, tienes un pago vencido de S/1600. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>960318954</t>
+  </si>
+  <si>
+    <t>MARISOL, tienes un pago vencido de S/895. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>902004120</t>
+  </si>
+  <si>
+    <t>BRISETH, tienes un pago vencido de S/475. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>952131036</t>
+  </si>
+  <si>
+    <t>MARI, tienes un pago vencido de S/1400. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>991945099</t>
+  </si>
+  <si>
+    <t>ANTONY, tienes un pago vencido de S/2300. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>972093016</t>
+  </si>
+  <si>
+    <t>LEONARDO, tienes un pago vencido de S/1900. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>986402947</t>
+  </si>
+  <si>
+    <t>ESTEFANI, tienes un pago vencido de S/2100. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>918339699</t>
+  </si>
+  <si>
+    <t>ALEXANDER, tienes un pago vencido de S/1180. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>923457695</t>
+  </si>
+  <si>
+    <t>CESAR, tienes un pago vencido de S/1500. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>967349528</t>
+  </si>
+  <si>
+    <t>YANELA, tienes un pago vencido de S/2352. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>918358968</t>
+  </si>
+  <si>
+    <t>ALFONZO, tienes un pago vencido de S/2500. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>946239493</t>
+  </si>
+  <si>
+    <t>ROCIO, tienes un pago vencido de S/450. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>953494475</t>
+  </si>
+  <si>
+    <t>PEDRO, tienes un pago vencido de S/1830. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>928815274</t>
+  </si>
+  <si>
+    <t>EDINSON, tienes un pago vencido de S/506. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>952667538</t>
+  </si>
+  <si>
+    <t>BRYAN, tienes un pago vencido de S/2700. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>926730825</t>
+  </si>
+  <si>
+    <t>IRVIN, tienes un pago vencido de S/545. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>991565610</t>
+  </si>
+  <si>
+    <t>BRIGITTE, tienes un pago vencido de S/2950. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>943439049</t>
+  </si>
+  <si>
+    <t>ROGELIO, tienes un pago vencido de S/487. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>971065212</t>
+  </si>
+  <si>
+    <t>DELSI, tienes un pago vencido de S/1256. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>980762027</t>
+  </si>
+  <si>
+    <t>DEIVI, tienes un pago vencido de S/920. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>963835887</t>
+  </si>
+  <si>
+    <t>STEFHANY, tienes un pago vencido de S/500. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>960365916</t>
+  </si>
+  <si>
+    <t>JEAN, tienes un pago vencido de S/900. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>927987613</t>
+  </si>
+  <si>
+    <t>ORIANA, tienes un pago vencido de S/800. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>999478662</t>
+  </si>
+  <si>
+    <t>BRANDON, tienes un pago vencido de S/1855. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
+  </si>
+  <si>
+    <t>943063200</t>
+  </si>
+  <si>
+    <t>MARIA, tienes un pago vencido de S/800. Financiera Oh te ofrece pagar esta promoción en 2 meses. Contáctanos al 968437436.</t>
   </si>
 </sst>
 </file>
@@ -1853,7 +1586,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P292"/>
+  <dimension ref="A1:P249"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1917,7 +1650,7 @@
         <v>17</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>35.0</v>
+        <v>121.0</v>
       </c>
       <c r="D2" t="s" s="0">
         <v>18</v>
@@ -1967,7 +1700,7 @@
         <v>20</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>37.0</v>
+        <v>124.0</v>
       </c>
       <c r="D3" t="s" s="0">
         <v>18</v>
@@ -2017,7 +1750,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>32.0</v>
+        <v>124.0</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>18</v>
@@ -2067,7 +1800,7 @@
         <v>24</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>33.0</v>
+        <v>122.0</v>
       </c>
       <c r="D5" t="s" s="0">
         <v>18</v>
@@ -2111,13 +1844,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>26</v>
-      </c>
       <c r="C6" t="n" s="0">
-        <v>37.0</v>
+        <v>122.0</v>
       </c>
       <c r="D6" t="s" s="0">
         <v>18</v>
@@ -2161,13 +1894,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="B7" t="s" s="0">
-        <v>28</v>
-      </c>
       <c r="C7" t="n" s="0">
-        <v>34.0</v>
+        <v>122.0</v>
       </c>
       <c r="D7" t="s" s="0">
         <v>18</v>
@@ -2211,13 +1944,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="B8" t="s" s="0">
-        <v>30</v>
-      </c>
       <c r="C8" t="n" s="0">
-        <v>33.0</v>
+        <v>120.0</v>
       </c>
       <c r="D8" t="s" s="0">
         <v>18</v>
@@ -2261,13 +1994,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B9" t="s" s="0">
-        <v>32</v>
-      </c>
       <c r="C9" t="n" s="0">
-        <v>33.0</v>
+        <v>125.0</v>
       </c>
       <c r="D9" t="s" s="0">
         <v>18</v>
@@ -2311,13 +2044,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="B10" t="s" s="0">
-        <v>34</v>
-      </c>
       <c r="C10" t="n" s="0">
-        <v>34.0</v>
+        <v>124.0</v>
       </c>
       <c r="D10" t="s" s="0">
         <v>18</v>
@@ -2361,13 +2094,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="B11" t="s" s="0">
-        <v>36</v>
-      </c>
       <c r="C11" t="n" s="0">
-        <v>35.0</v>
+        <v>123.0</v>
       </c>
       <c r="D11" t="s" s="0">
         <v>18</v>
@@ -2411,13 +2144,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="B12" t="s" s="0">
-        <v>38</v>
-      </c>
       <c r="C12" t="n" s="0">
-        <v>35.0</v>
+        <v>123.0</v>
       </c>
       <c r="D12" t="s" s="0">
         <v>18</v>
@@ -2461,13 +2194,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="B13" t="s" s="0">
-        <v>40</v>
-      </c>
       <c r="C13" t="n" s="0">
-        <v>36.0</v>
+        <v>122.0</v>
       </c>
       <c r="D13" t="s" s="0">
         <v>18</v>
@@ -2511,13 +2244,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="B14" t="s" s="0">
-        <v>42</v>
-      </c>
       <c r="C14" t="n" s="0">
-        <v>37.0</v>
+        <v>122.0</v>
       </c>
       <c r="D14" t="s" s="0">
         <v>18</v>
@@ -2561,13 +2294,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="B15" t="s" s="0">
-        <v>44</v>
-      </c>
       <c r="C15" t="n" s="0">
-        <v>35.0</v>
+        <v>122.0</v>
       </c>
       <c r="D15" t="s" s="0">
         <v>18</v>
@@ -2611,13 +2344,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="B16" t="s" s="0">
-        <v>46</v>
-      </c>
       <c r="C16" t="n" s="0">
-        <v>33.0</v>
+        <v>126.0</v>
       </c>
       <c r="D16" t="s" s="0">
         <v>18</v>
@@ -2661,13 +2394,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="B17" t="s" s="0">
-        <v>48</v>
-      </c>
       <c r="C17" t="n" s="0">
-        <v>33.0</v>
+        <v>122.0</v>
       </c>
       <c r="D17" t="s" s="0">
         <v>18</v>
@@ -2711,13 +2444,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="B18" t="s" s="0">
-        <v>50</v>
-      </c>
       <c r="C18" t="n" s="0">
-        <v>35.0</v>
+        <v>123.0</v>
       </c>
       <c r="D18" t="s" s="0">
         <v>18</v>
@@ -2761,13 +2494,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="B19" t="s" s="0">
-        <v>52</v>
-      </c>
       <c r="C19" t="n" s="0">
-        <v>33.0</v>
+        <v>124.0</v>
       </c>
       <c r="D19" t="s" s="0">
         <v>18</v>
@@ -2811,13 +2544,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="B20" t="s" s="0">
-        <v>54</v>
-      </c>
       <c r="C20" t="n" s="0">
-        <v>35.0</v>
+        <v>126.0</v>
       </c>
       <c r="D20" t="s" s="0">
         <v>18</v>
@@ -2861,13 +2594,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="B21" t="s" s="0">
-        <v>56</v>
-      </c>
       <c r="C21" t="n" s="0">
-        <v>32.0</v>
+        <v>123.0</v>
       </c>
       <c r="D21" t="s" s="0">
         <v>18</v>
@@ -2911,13 +2644,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="B22" t="s" s="0">
-        <v>58</v>
-      </c>
       <c r="C22" t="n" s="0">
-        <v>34.0</v>
+        <v>124.0</v>
       </c>
       <c r="D22" t="s" s="0">
         <v>18</v>
@@ -2961,13 +2694,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="B23" t="s" s="0">
-        <v>60</v>
-      </c>
       <c r="C23" t="n" s="0">
-        <v>32.0</v>
+        <v>123.0</v>
       </c>
       <c r="D23" t="s" s="0">
         <v>18</v>
@@ -3011,13 +2744,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B24" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="B24" t="s" s="0">
-        <v>62</v>
-      </c>
       <c r="C24" t="n" s="0">
-        <v>32.0</v>
+        <v>124.0</v>
       </c>
       <c r="D24" t="s" s="0">
         <v>18</v>
@@ -3061,13 +2794,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B25" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="B25" t="s" s="0">
-        <v>64</v>
-      </c>
       <c r="C25" t="n" s="0">
-        <v>34.0</v>
+        <v>124.0</v>
       </c>
       <c r="D25" t="s" s="0">
         <v>18</v>
@@ -3111,13 +2844,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="B26" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="B26" t="s" s="0">
-        <v>66</v>
-      </c>
       <c r="C26" t="n" s="0">
-        <v>31.0</v>
+        <v>124.0</v>
       </c>
       <c r="D26" t="s" s="0">
         <v>18</v>
@@ -3161,13 +2894,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B27" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="B27" t="s" s="0">
-        <v>68</v>
-      </c>
       <c r="C27" t="n" s="0">
-        <v>36.0</v>
+        <v>122.0</v>
       </c>
       <c r="D27" t="s" s="0">
         <v>18</v>
@@ -3211,13 +2944,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B28" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="B28" t="s" s="0">
-        <v>70</v>
-      </c>
       <c r="C28" t="n" s="0">
-        <v>35.0</v>
+        <v>124.0</v>
       </c>
       <c r="D28" t="s" s="0">
         <v>18</v>
@@ -3261,13 +2994,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="B29" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="B29" t="s" s="0">
-        <v>72</v>
-      </c>
       <c r="C29" t="n" s="0">
-        <v>35.0</v>
+        <v>122.0</v>
       </c>
       <c r="D29" t="s" s="0">
         <v>18</v>
@@ -3311,13 +3044,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B30" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="B30" t="s" s="0">
-        <v>74</v>
-      </c>
       <c r="C30" t="n" s="0">
-        <v>33.0</v>
+        <v>122.0</v>
       </c>
       <c r="D30" t="s" s="0">
         <v>18</v>
@@ -3361,13 +3094,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B31" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="B31" t="s" s="0">
-        <v>76</v>
-      </c>
       <c r="C31" t="n" s="0">
-        <v>36.0</v>
+        <v>123.0</v>
       </c>
       <c r="D31" t="s" s="0">
         <v>18</v>
@@ -3411,13 +3144,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B32" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="B32" t="s" s="0">
-        <v>78</v>
-      </c>
       <c r="C32" t="n" s="0">
-        <v>38.0</v>
+        <v>124.0</v>
       </c>
       <c r="D32" t="s" s="0">
         <v>18</v>
@@ -3461,13 +3194,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B33" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="B33" t="s" s="0">
-        <v>80</v>
-      </c>
       <c r="C33" t="n" s="0">
-        <v>35.0</v>
+        <v>125.0</v>
       </c>
       <c r="D33" t="s" s="0">
         <v>18</v>
@@ -3511,13 +3244,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B34" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="B34" t="s" s="0">
-        <v>82</v>
-      </c>
       <c r="C34" t="n" s="0">
-        <v>34.0</v>
+        <v>124.0</v>
       </c>
       <c r="D34" t="s" s="0">
         <v>18</v>
@@ -3561,13 +3294,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B35" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="B35" t="s" s="0">
-        <v>84</v>
-      </c>
       <c r="C35" t="n" s="0">
-        <v>37.0</v>
+        <v>122.0</v>
       </c>
       <c r="D35" t="s" s="0">
         <v>18</v>
@@ -3611,13 +3344,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B36" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="B36" t="s" s="0">
-        <v>86</v>
-      </c>
       <c r="C36" t="n" s="0">
-        <v>36.0</v>
+        <v>124.0</v>
       </c>
       <c r="D36" t="s" s="0">
         <v>18</v>
@@ -3661,13 +3394,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B37" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="B37" t="s" s="0">
-        <v>88</v>
-      </c>
       <c r="C37" t="n" s="0">
-        <v>34.0</v>
+        <v>123.0</v>
       </c>
       <c r="D37" t="s" s="0">
         <v>18</v>
@@ -3711,13 +3444,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B38" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="B38" t="s" s="0">
-        <v>90</v>
-      </c>
       <c r="C38" t="n" s="0">
-        <v>35.0</v>
+        <v>120.0</v>
       </c>
       <c r="D38" t="s" s="0">
         <v>18</v>
@@ -3761,13 +3494,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B39" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="B39" t="s" s="0">
-        <v>92</v>
-      </c>
       <c r="C39" t="n" s="0">
-        <v>33.0</v>
+        <v>122.0</v>
       </c>
       <c r="D39" t="s" s="0">
         <v>18</v>
@@ -3811,13 +3544,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B40" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B40" t="s" s="0">
-        <v>94</v>
-      </c>
       <c r="C40" t="n" s="0">
-        <v>35.0</v>
+        <v>122.0</v>
       </c>
       <c r="D40" t="s" s="0">
         <v>18</v>
@@ -3861,13 +3594,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B41" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="B41" t="s" s="0">
-        <v>96</v>
-      </c>
       <c r="C41" t="n" s="0">
-        <v>37.0</v>
+        <v>124.0</v>
       </c>
       <c r="D41" t="s" s="0">
         <v>18</v>
@@ -3911,13 +3644,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B42" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="B42" t="s" s="0">
-        <v>98</v>
-      </c>
       <c r="C42" t="n" s="0">
-        <v>35.0</v>
+        <v>123.0</v>
       </c>
       <c r="D42" t="s" s="0">
         <v>18</v>
@@ -3961,13 +3694,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B43" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="B43" t="s" s="0">
-        <v>100</v>
-      </c>
       <c r="C43" t="n" s="0">
-        <v>34.0</v>
+        <v>123.0</v>
       </c>
       <c r="D43" t="s" s="0">
         <v>18</v>
@@ -4011,13 +3744,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B44" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="B44" t="s" s="0">
-        <v>102</v>
-      </c>
       <c r="C44" t="n" s="0">
-        <v>33.0</v>
+        <v>124.0</v>
       </c>
       <c r="D44" t="s" s="0">
         <v>18</v>
@@ -4061,13 +3794,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B45" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="B45" t="s" s="0">
-        <v>104</v>
-      </c>
       <c r="C45" t="n" s="0">
-        <v>35.0</v>
+        <v>124.0</v>
       </c>
       <c r="D45" t="s" s="0">
         <v>18</v>
@@ -4111,13 +3844,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B46" t="s" s="0">
         <v>105</v>
       </c>
-      <c r="B46" t="s" s="0">
-        <v>106</v>
-      </c>
       <c r="C46" t="n" s="0">
-        <v>36.0</v>
+        <v>125.0</v>
       </c>
       <c r="D46" t="s" s="0">
         <v>18</v>
@@ -4161,13 +3894,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B47" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="B47" t="s" s="0">
-        <v>108</v>
-      </c>
       <c r="C47" t="n" s="0">
-        <v>34.0</v>
+        <v>124.0</v>
       </c>
       <c r="D47" t="s" s="0">
         <v>18</v>
@@ -4211,13 +3944,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="B48" t="s" s="0">
         <v>109</v>
       </c>
-      <c r="B48" t="s" s="0">
-        <v>110</v>
-      </c>
       <c r="C48" t="n" s="0">
-        <v>35.0</v>
+        <v>126.0</v>
       </c>
       <c r="D48" t="s" s="0">
         <v>18</v>
@@ -4261,13 +3994,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B49" t="s" s="0">
         <v>111</v>
       </c>
-      <c r="B49" t="s" s="0">
-        <v>112</v>
-      </c>
       <c r="C49" t="n" s="0">
-        <v>35.0</v>
+        <v>123.0</v>
       </c>
       <c r="D49" t="s" s="0">
         <v>18</v>
@@ -4311,13 +4044,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="B50" t="s" s="0">
         <v>113</v>
       </c>
-      <c r="B50" t="s" s="0">
-        <v>114</v>
-      </c>
       <c r="C50" t="n" s="0">
-        <v>33.0</v>
+        <v>124.0</v>
       </c>
       <c r="D50" t="s" s="0">
         <v>18</v>
@@ -4361,13 +4094,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="B51" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="B51" t="s" s="0">
-        <v>116</v>
-      </c>
       <c r="C51" t="n" s="0">
-        <v>37.0</v>
+        <v>123.0</v>
       </c>
       <c r="D51" t="s" s="0">
         <v>18</v>
@@ -4411,13 +4144,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B52" t="s" s="0">
         <v>117</v>
       </c>
-      <c r="B52" t="s" s="0">
-        <v>118</v>
-      </c>
       <c r="C52" t="n" s="0">
-        <v>35.0</v>
+        <v>124.0</v>
       </c>
       <c r="D52" t="s" s="0">
         <v>18</v>
@@ -4461,13 +4194,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="B53" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="B53" t="s" s="0">
-        <v>120</v>
-      </c>
       <c r="C53" t="n" s="0">
-        <v>34.0</v>
+        <v>124.0</v>
       </c>
       <c r="D53" t="s" s="0">
         <v>18</v>
@@ -4511,13 +4244,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="B54" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="B54" t="s" s="0">
-        <v>122</v>
-      </c>
       <c r="C54" t="n" s="0">
-        <v>35.0</v>
+        <v>121.0</v>
       </c>
       <c r="D54" t="s" s="0">
         <v>18</v>
@@ -4561,13 +4294,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B55" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="B55" t="s" s="0">
-        <v>124</v>
-      </c>
       <c r="C55" t="n" s="0">
-        <v>35.0</v>
+        <v>125.0</v>
       </c>
       <c r="D55" t="s" s="0">
         <v>18</v>
@@ -4611,13 +4344,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="B56" t="s" s="0">
         <v>125</v>
       </c>
-      <c r="B56" t="s" s="0">
-        <v>126</v>
-      </c>
       <c r="C56" t="n" s="0">
-        <v>32.0</v>
+        <v>122.0</v>
       </c>
       <c r="D56" t="s" s="0">
         <v>18</v>
@@ -4661,13 +4394,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B57" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="B57" t="s" s="0">
-        <v>128</v>
-      </c>
       <c r="C57" t="n" s="0">
-        <v>35.0</v>
+        <v>124.0</v>
       </c>
       <c r="D57" t="s" s="0">
         <v>18</v>
@@ -4711,13 +4444,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="B58" t="s" s="0">
         <v>129</v>
       </c>
-      <c r="B58" t="s" s="0">
-        <v>130</v>
-      </c>
       <c r="C58" t="n" s="0">
-        <v>35.0</v>
+        <v>125.0</v>
       </c>
       <c r="D58" t="s" s="0">
         <v>18</v>
@@ -4761,13 +4494,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="B59" t="s" s="0">
         <v>131</v>
       </c>
-      <c r="B59" t="s" s="0">
-        <v>132</v>
-      </c>
       <c r="C59" t="n" s="0">
-        <v>34.0</v>
+        <v>125.0</v>
       </c>
       <c r="D59" t="s" s="0">
         <v>18</v>
@@ -4811,13 +4544,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B60" t="s" s="0">
         <v>133</v>
       </c>
-      <c r="B60" t="s" s="0">
-        <v>134</v>
-      </c>
       <c r="C60" t="n" s="0">
-        <v>34.0</v>
+        <v>122.0</v>
       </c>
       <c r="D60" t="s" s="0">
         <v>18</v>
@@ -4861,13 +4594,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="B61" t="s" s="0">
         <v>135</v>
       </c>
-      <c r="B61" t="s" s="0">
-        <v>136</v>
-      </c>
       <c r="C61" t="n" s="0">
-        <v>35.0</v>
+        <v>123.0</v>
       </c>
       <c r="D61" t="s" s="0">
         <v>18</v>
@@ -4911,13 +4644,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="B62" t="s" s="0">
         <v>137</v>
       </c>
-      <c r="B62" t="s" s="0">
-        <v>138</v>
-      </c>
       <c r="C62" t="n" s="0">
-        <v>35.0</v>
+        <v>123.0</v>
       </c>
       <c r="D62" t="s" s="0">
         <v>18</v>
@@ -4961,13 +4694,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="B63" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="B63" t="s" s="0">
-        <v>140</v>
-      </c>
       <c r="C63" t="n" s="0">
-        <v>36.0</v>
+        <v>126.0</v>
       </c>
       <c r="D63" t="s" s="0">
         <v>18</v>
@@ -5011,13 +4744,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="B64" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="B64" t="s" s="0">
-        <v>142</v>
-      </c>
       <c r="C64" t="n" s="0">
-        <v>34.0</v>
+        <v>123.0</v>
       </c>
       <c r="D64" t="s" s="0">
         <v>18</v>
@@ -5061,13 +4794,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B65" t="s" s="0">
         <v>143</v>
       </c>
-      <c r="B65" t="s" s="0">
-        <v>144</v>
-      </c>
       <c r="C65" t="n" s="0">
-        <v>37.0</v>
+        <v>124.0</v>
       </c>
       <c r="D65" t="s" s="0">
         <v>18</v>
@@ -5111,13 +4844,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="B66" t="s" s="0">
         <v>145</v>
       </c>
-      <c r="B66" t="s" s="0">
-        <v>146</v>
-      </c>
       <c r="C66" t="n" s="0">
-        <v>32.0</v>
+        <v>126.0</v>
       </c>
       <c r="D66" t="s" s="0">
         <v>18</v>
@@ -5161,13 +4894,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="B67" t="s" s="0">
         <v>147</v>
       </c>
-      <c r="B67" t="s" s="0">
-        <v>148</v>
-      </c>
       <c r="C67" t="n" s="0">
-        <v>37.0</v>
+        <v>123.0</v>
       </c>
       <c r="D67" t="s" s="0">
         <v>18</v>
@@ -5211,13 +4944,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="B68" t="s" s="0">
         <v>149</v>
       </c>
-      <c r="B68" t="s" s="0">
-        <v>150</v>
-      </c>
       <c r="C68" t="n" s="0">
-        <v>38.0</v>
+        <v>121.0</v>
       </c>
       <c r="D68" t="s" s="0">
         <v>18</v>
@@ -5261,13 +4994,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="B69" t="s" s="0">
         <v>151</v>
       </c>
-      <c r="B69" t="s" s="0">
-        <v>152</v>
-      </c>
       <c r="C69" t="n" s="0">
-        <v>36.0</v>
+        <v>124.0</v>
       </c>
       <c r="D69" t="s" s="0">
         <v>18</v>
@@ -5311,13 +5044,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B70" t="s" s="0">
         <v>153</v>
       </c>
-      <c r="B70" t="s" s="0">
-        <v>154</v>
-      </c>
       <c r="C70" t="n" s="0">
-        <v>36.0</v>
+        <v>122.0</v>
       </c>
       <c r="D70" t="s" s="0">
         <v>18</v>
@@ -5361,13 +5094,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="B71" t="s" s="0">
         <v>155</v>
       </c>
-      <c r="B71" t="s" s="0">
-        <v>156</v>
-      </c>
       <c r="C71" t="n" s="0">
-        <v>37.0</v>
+        <v>125.0</v>
       </c>
       <c r="D71" t="s" s="0">
         <v>18</v>
@@ -5411,13 +5144,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="B72" t="s" s="0">
         <v>157</v>
       </c>
-      <c r="B72" t="s" s="0">
-        <v>158</v>
-      </c>
       <c r="C72" t="n" s="0">
-        <v>36.0</v>
+        <v>122.0</v>
       </c>
       <c r="D72" t="s" s="0">
         <v>18</v>
@@ -5461,13 +5194,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="B73" t="s" s="0">
         <v>159</v>
       </c>
-      <c r="B73" t="s" s="0">
-        <v>160</v>
-      </c>
       <c r="C73" t="n" s="0">
-        <v>33.0</v>
+        <v>122.0</v>
       </c>
       <c r="D73" t="s" s="0">
         <v>18</v>
@@ -5511,13 +5244,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="B74" t="s" s="0">
         <v>161</v>
       </c>
-      <c r="B74" t="s" s="0">
-        <v>162</v>
-      </c>
       <c r="C74" t="n" s="0">
-        <v>35.0</v>
+        <v>125.0</v>
       </c>
       <c r="D74" t="s" s="0">
         <v>18</v>
@@ -5561,13 +5294,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="B75" t="s" s="0">
         <v>163</v>
       </c>
-      <c r="B75" t="s" s="0">
-        <v>164</v>
-      </c>
       <c r="C75" t="n" s="0">
-        <v>35.0</v>
+        <v>123.0</v>
       </c>
       <c r="D75" t="s" s="0">
         <v>18</v>
@@ -5611,13 +5344,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="B76" t="s" s="0">
         <v>165</v>
       </c>
-      <c r="B76" t="s" s="0">
-        <v>166</v>
-      </c>
       <c r="C76" t="n" s="0">
-        <v>33.0</v>
+        <v>122.0</v>
       </c>
       <c r="D76" t="s" s="0">
         <v>18</v>
@@ -5661,13 +5394,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B77" t="s" s="0">
         <v>167</v>
       </c>
-      <c r="B77" t="s" s="0">
-        <v>168</v>
-      </c>
       <c r="C77" t="n" s="0">
-        <v>33.0</v>
+        <v>124.0</v>
       </c>
       <c r="D77" t="s" s="0">
         <v>18</v>
@@ -5711,13 +5444,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B78" t="s" s="0">
         <v>169</v>
       </c>
-      <c r="B78" t="s" s="0">
-        <v>170</v>
-      </c>
       <c r="C78" t="n" s="0">
-        <v>36.0</v>
+        <v>124.0</v>
       </c>
       <c r="D78" t="s" s="0">
         <v>18</v>
@@ -5761,13 +5494,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B79" t="s" s="0">
         <v>171</v>
       </c>
-      <c r="B79" t="s" s="0">
-        <v>172</v>
-      </c>
       <c r="C79" t="n" s="0">
-        <v>33.0</v>
+        <v>121.0</v>
       </c>
       <c r="D79" t="s" s="0">
         <v>18</v>
@@ -5811,13 +5544,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="B80" t="s" s="0">
         <v>173</v>
       </c>
-      <c r="B80" t="s" s="0">
-        <v>174</v>
-      </c>
       <c r="C80" t="n" s="0">
-        <v>34.0</v>
+        <v>122.0</v>
       </c>
       <c r="D80" t="s" s="0">
         <v>18</v>
@@ -5861,13 +5594,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="B81" t="s" s="0">
         <v>175</v>
       </c>
-      <c r="B81" t="s" s="0">
-        <v>176</v>
-      </c>
       <c r="C81" t="n" s="0">
-        <v>35.0</v>
+        <v>123.0</v>
       </c>
       <c r="D81" t="s" s="0">
         <v>18</v>
@@ -5911,13 +5644,13 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B82" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="B82" t="s" s="0">
-        <v>178</v>
-      </c>
       <c r="C82" t="n" s="0">
-        <v>33.0</v>
+        <v>126.0</v>
       </c>
       <c r="D82" t="s" s="0">
         <v>18</v>
@@ -5961,13 +5694,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="B83" t="s" s="0">
         <v>179</v>
       </c>
-      <c r="B83" t="s" s="0">
-        <v>180</v>
-      </c>
       <c r="C83" t="n" s="0">
-        <v>34.0</v>
+        <v>122.0</v>
       </c>
       <c r="D83" t="s" s="0">
         <v>18</v>
@@ -6011,13 +5744,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="B84" t="s" s="0">
         <v>181</v>
       </c>
-      <c r="B84" t="s" s="0">
-        <v>182</v>
-      </c>
       <c r="C84" t="n" s="0">
-        <v>33.0</v>
+        <v>125.0</v>
       </c>
       <c r="D84" t="s" s="0">
         <v>18</v>
@@ -6061,13 +5794,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="B85" t="s" s="0">
         <v>183</v>
       </c>
-      <c r="B85" t="s" s="0">
-        <v>184</v>
-      </c>
       <c r="C85" t="n" s="0">
-        <v>36.0</v>
+        <v>123.0</v>
       </c>
       <c r="D85" t="s" s="0">
         <v>18</v>
@@ -6111,13 +5844,13 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="B86" t="s" s="0">
         <v>185</v>
       </c>
-      <c r="B86" t="s" s="0">
-        <v>186</v>
-      </c>
       <c r="C86" t="n" s="0">
-        <v>33.0</v>
+        <v>123.0</v>
       </c>
       <c r="D86" t="s" s="0">
         <v>18</v>
@@ -6161,13 +5894,13 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="B87" t="s" s="0">
         <v>187</v>
       </c>
-      <c r="B87" t="s" s="0">
-        <v>188</v>
-      </c>
       <c r="C87" t="n" s="0">
-        <v>33.0</v>
+        <v>122.0</v>
       </c>
       <c r="D87" t="s" s="0">
         <v>18</v>
@@ -6211,13 +5944,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="B88" t="s" s="0">
         <v>189</v>
       </c>
-      <c r="B88" t="s" s="0">
-        <v>190</v>
-      </c>
       <c r="C88" t="n" s="0">
-        <v>35.0</v>
+        <v>124.0</v>
       </c>
       <c r="D88" t="s" s="0">
         <v>18</v>
@@ -6261,13 +5994,13 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="B89" t="s" s="0">
         <v>191</v>
       </c>
-      <c r="B89" t="s" s="0">
-        <v>192</v>
-      </c>
       <c r="C89" t="n" s="0">
-        <v>36.0</v>
+        <v>122.0</v>
       </c>
       <c r="D89" t="s" s="0">
         <v>18</v>
@@ -6311,13 +6044,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="B90" t="s" s="0">
         <v>193</v>
       </c>
-      <c r="B90" t="s" s="0">
-        <v>194</v>
-      </c>
       <c r="C90" t="n" s="0">
-        <v>33.0</v>
+        <v>123.0</v>
       </c>
       <c r="D90" t="s" s="0">
         <v>18</v>
@@ -6361,13 +6094,13 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="B91" t="s" s="0">
         <v>195</v>
       </c>
-      <c r="B91" t="s" s="0">
-        <v>196</v>
-      </c>
       <c r="C91" t="n" s="0">
-        <v>34.0</v>
+        <v>123.0</v>
       </c>
       <c r="D91" t="s" s="0">
         <v>18</v>
@@ -6411,13 +6144,13 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="B92" t="s" s="0">
         <v>197</v>
       </c>
-      <c r="B92" t="s" s="0">
-        <v>198</v>
-      </c>
       <c r="C92" t="n" s="0">
-        <v>35.0</v>
+        <v>121.0</v>
       </c>
       <c r="D92" t="s" s="0">
         <v>18</v>
@@ -6461,13 +6194,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="B93" t="s" s="0">
         <v>199</v>
       </c>
-      <c r="B93" t="s" s="0">
-        <v>200</v>
-      </c>
       <c r="C93" t="n" s="0">
-        <v>34.0</v>
+        <v>122.0</v>
       </c>
       <c r="D93" t="s" s="0">
         <v>18</v>
@@ -6511,13 +6244,13 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="B94" t="s" s="0">
         <v>201</v>
       </c>
-      <c r="B94" t="s" s="0">
-        <v>202</v>
-      </c>
       <c r="C94" t="n" s="0">
-        <v>36.0</v>
+        <v>124.0</v>
       </c>
       <c r="D94" t="s" s="0">
         <v>18</v>
@@ -6561,13 +6294,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B95" t="s" s="0">
         <v>203</v>
       </c>
-      <c r="B95" t="s" s="0">
-        <v>204</v>
-      </c>
       <c r="C95" t="n" s="0">
-        <v>36.0</v>
+        <v>122.0</v>
       </c>
       <c r="D95" t="s" s="0">
         <v>18</v>
@@ -6611,13 +6344,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="B96" t="s" s="0">
         <v>205</v>
       </c>
-      <c r="B96" t="s" s="0">
-        <v>206</v>
-      </c>
       <c r="C96" t="n" s="0">
-        <v>33.0</v>
+        <v>122.0</v>
       </c>
       <c r="D96" t="s" s="0">
         <v>18</v>
@@ -6661,13 +6394,13 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B97" t="s" s="0">
         <v>207</v>
       </c>
-      <c r="B97" t="s" s="0">
-        <v>208</v>
-      </c>
       <c r="C97" t="n" s="0">
-        <v>35.0</v>
+        <v>123.0</v>
       </c>
       <c r="D97" t="s" s="0">
         <v>18</v>
@@ -6711,13 +6444,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="0">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>210</v>
+        <v>55</v>
       </c>
       <c r="C98" t="n" s="0">
-        <v>32.0</v>
+        <v>123.0</v>
       </c>
       <c r="D98" t="s" s="0">
         <v>18</v>
@@ -6761,13 +6494,13 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="0">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C99" t="n" s="0">
-        <v>36.0</v>
+        <v>124.0</v>
       </c>
       <c r="D99" t="s" s="0">
         <v>18</v>
@@ -6811,13 +6544,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="0">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C100" t="n" s="0">
-        <v>34.0</v>
+        <v>125.0</v>
       </c>
       <c r="D100" t="s" s="0">
         <v>18</v>
@@ -6861,13 +6594,13 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="0">
-        <v>215</v>
+        <v>18</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C101" t="n" s="0">
-        <v>34.0</v>
+        <v>123.0</v>
       </c>
       <c r="D101" t="s" s="0">
         <v>18</v>
@@ -6911,13 +6644,13 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C102" t="n" s="0">
-        <v>35.0</v>
+        <v>124.0</v>
       </c>
       <c r="D102" t="s" s="0">
         <v>18</v>
@@ -6961,13 +6694,13 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="0">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C103" t="n" s="0">
-        <v>34.0</v>
+        <v>123.0</v>
       </c>
       <c r="D103" t="s" s="0">
         <v>18</v>
@@ -7011,13 +6744,13 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="0">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C104" t="n" s="0">
-        <v>33.0</v>
+        <v>124.0</v>
       </c>
       <c r="D104" t="s" s="0">
         <v>18</v>
@@ -7061,13 +6794,13 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="0">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C105" t="n" s="0">
-        <v>35.0</v>
+        <v>121.0</v>
       </c>
       <c r="D105" t="s" s="0">
         <v>18</v>
@@ -7111,13 +6844,13 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="0">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C106" t="n" s="0">
-        <v>34.0</v>
+        <v>121.0</v>
       </c>
       <c r="D106" t="s" s="0">
         <v>18</v>
@@ -7161,13 +6894,13 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="0">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C107" t="n" s="0">
-        <v>35.0</v>
+        <v>124.0</v>
       </c>
       <c r="D107" t="s" s="0">
         <v>18</v>
@@ -7211,13 +6944,13 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="0">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C108" t="n" s="0">
-        <v>36.0</v>
+        <v>125.0</v>
       </c>
       <c r="D108" t="s" s="0">
         <v>18</v>
@@ -7261,13 +6994,13 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="0">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C109" t="n" s="0">
-        <v>36.0</v>
+        <v>121.0</v>
       </c>
       <c r="D109" t="s" s="0">
         <v>18</v>
@@ -7311,13 +7044,13 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="0">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C110" t="n" s="0">
-        <v>33.0</v>
+        <v>125.0</v>
       </c>
       <c r="D110" t="s" s="0">
         <v>18</v>
@@ -7361,13 +7094,13 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="0">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C111" t="n" s="0">
-        <v>38.0</v>
+        <v>125.0</v>
       </c>
       <c r="D111" t="s" s="0">
         <v>18</v>
@@ -7411,13 +7144,13 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="0">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C112" t="n" s="0">
-        <v>37.0</v>
+        <v>123.0</v>
       </c>
       <c r="D112" t="s" s="0">
         <v>18</v>
@@ -7461,13 +7194,13 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="0">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C113" t="n" s="0">
-        <v>35.0</v>
+        <v>122.0</v>
       </c>
       <c r="D113" t="s" s="0">
         <v>18</v>
@@ -7511,13 +7244,13 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="0">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C114" t="n" s="0">
-        <v>37.0</v>
+        <v>122.0</v>
       </c>
       <c r="D114" t="s" s="0">
         <v>18</v>
@@ -7561,13 +7294,13 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="0">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C115" t="n" s="0">
-        <v>34.0</v>
+        <v>122.0</v>
       </c>
       <c r="D115" t="s" s="0">
         <v>18</v>
@@ -7611,13 +7344,13 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="0">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C116" t="n" s="0">
-        <v>37.0</v>
+        <v>122.0</v>
       </c>
       <c r="D116" t="s" s="0">
         <v>18</v>
@@ -7661,13 +7394,13 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="0">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C117" t="n" s="0">
-        <v>37.0</v>
+        <v>123.0</v>
       </c>
       <c r="D117" t="s" s="0">
         <v>18</v>
@@ -7711,13 +7444,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="0">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C118" t="n" s="0">
-        <v>35.0</v>
+        <v>123.0</v>
       </c>
       <c r="D118" t="s" s="0">
         <v>18</v>
@@ -7761,13 +7494,13 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="0">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C119" t="n" s="0">
-        <v>35.0</v>
+        <v>122.0</v>
       </c>
       <c r="D119" t="s" s="0">
         <v>18</v>
@@ -7811,13 +7544,13 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="0">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C120" t="n" s="0">
-        <v>37.0</v>
+        <v>124.0</v>
       </c>
       <c r="D120" t="s" s="0">
         <v>18</v>
@@ -7861,13 +7594,13 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="0">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C121" t="n" s="0">
-        <v>34.0</v>
+        <v>122.0</v>
       </c>
       <c r="D121" t="s" s="0">
         <v>18</v>
@@ -7911,13 +7644,13 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="0">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C122" t="n" s="0">
-        <v>33.0</v>
+        <v>122.0</v>
       </c>
       <c r="D122" t="s" s="0">
         <v>18</v>
@@ -7961,13 +7694,13 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="0">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C123" t="n" s="0">
-        <v>35.0</v>
+        <v>122.0</v>
       </c>
       <c r="D123" t="s" s="0">
         <v>18</v>
@@ -8011,13 +7744,13 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="0">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C124" t="n" s="0">
-        <v>33.0</v>
+        <v>123.0</v>
       </c>
       <c r="D124" t="s" s="0">
         <v>18</v>
@@ -8061,13 +7794,13 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="0">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C125" t="n" s="0">
-        <v>35.0</v>
+        <v>122.0</v>
       </c>
       <c r="D125" t="s" s="0">
         <v>18</v>
@@ -8111,13 +7844,13 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="0">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C126" t="n" s="0">
-        <v>36.0</v>
+        <v>124.0</v>
       </c>
       <c r="D126" t="s" s="0">
         <v>18</v>
@@ -8161,13 +7894,13 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="0">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C127" t="n" s="0">
-        <v>33.0</v>
+        <v>123.0</v>
       </c>
       <c r="D127" t="s" s="0">
         <v>18</v>
@@ -8211,13 +7944,13 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="0">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C128" t="n" s="0">
-        <v>35.0</v>
+        <v>123.0</v>
       </c>
       <c r="D128" t="s" s="0">
         <v>18</v>
@@ -8261,13 +7994,13 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="0">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C129" t="n" s="0">
-        <v>37.0</v>
+        <v>125.0</v>
       </c>
       <c r="D129" t="s" s="0">
         <v>18</v>
@@ -8311,13 +8044,13 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="0">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C130" t="n" s="0">
-        <v>38.0</v>
+        <v>121.0</v>
       </c>
       <c r="D130" t="s" s="0">
         <v>18</v>
@@ -8361,13 +8094,13 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="0">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C131" t="n" s="0">
-        <v>35.0</v>
+        <v>122.0</v>
       </c>
       <c r="D131" t="s" s="0">
         <v>18</v>
@@ -8411,13 +8144,13 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="0">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C132" t="n" s="0">
-        <v>36.0</v>
+        <v>123.0</v>
       </c>
       <c r="D132" t="s" s="0">
         <v>18</v>
@@ -8461,13 +8194,13 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="0">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C133" t="n" s="0">
-        <v>38.0</v>
+        <v>125.0</v>
       </c>
       <c r="D133" t="s" s="0">
         <v>18</v>
@@ -8511,13 +8244,13 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="0">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C134" t="n" s="0">
-        <v>40.0</v>
+        <v>122.0</v>
       </c>
       <c r="D134" t="s" s="0">
         <v>18</v>
@@ -8561,13 +8294,13 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="0">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C135" t="n" s="0">
-        <v>34.0</v>
+        <v>123.0</v>
       </c>
       <c r="D135" t="s" s="0">
         <v>18</v>
@@ -8611,13 +8344,13 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="0">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C136" t="n" s="0">
-        <v>34.0</v>
+        <v>124.0</v>
       </c>
       <c r="D136" t="s" s="0">
         <v>18</v>
@@ -8661,13 +8394,13 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="0">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C137" t="n" s="0">
-        <v>34.0</v>
+        <v>121.0</v>
       </c>
       <c r="D137" t="s" s="0">
         <v>18</v>
@@ -8711,13 +8444,13 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="0">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C138" t="n" s="0">
-        <v>33.0</v>
+        <v>126.0</v>
       </c>
       <c r="D138" t="s" s="0">
         <v>18</v>
@@ -8761,13 +8494,13 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="0">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C139" t="n" s="0">
-        <v>36.0</v>
+        <v>123.0</v>
       </c>
       <c r="D139" t="s" s="0">
         <v>18</v>
@@ -8811,13 +8544,13 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="0">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C140" t="n" s="0">
-        <v>34.0</v>
+        <v>125.0</v>
       </c>
       <c r="D140" t="s" s="0">
         <v>18</v>
@@ -8861,13 +8594,13 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="0">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C141" t="n" s="0">
-        <v>36.0</v>
+        <v>121.0</v>
       </c>
       <c r="D141" t="s" s="0">
         <v>18</v>
@@ -8911,13 +8644,13 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="0">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C142" t="n" s="0">
-        <v>35.0</v>
+        <v>122.0</v>
       </c>
       <c r="D142" t="s" s="0">
         <v>18</v>
@@ -8961,13 +8694,13 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="0">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C143" t="n" s="0">
-        <v>32.0</v>
+        <v>123.0</v>
       </c>
       <c r="D143" t="s" s="0">
         <v>18</v>
@@ -9011,13 +8744,13 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="0">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C144" t="n" s="0">
-        <v>38.0</v>
+        <v>121.0</v>
       </c>
       <c r="D144" t="s" s="0">
         <v>18</v>
@@ -9061,13 +8794,13 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="0">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C145" t="n" s="0">
-        <v>34.0</v>
+        <v>122.0</v>
       </c>
       <c r="D145" t="s" s="0">
         <v>18</v>
@@ -9111,13 +8844,13 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="0">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C146" t="n" s="0">
-        <v>33.0</v>
+        <v>124.0</v>
       </c>
       <c r="D146" t="s" s="0">
         <v>18</v>
@@ -9161,13 +8894,13 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="0">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C147" t="n" s="0">
-        <v>32.0</v>
+        <v>121.0</v>
       </c>
       <c r="D147" t="s" s="0">
         <v>18</v>
@@ -9211,13 +8944,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="0">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C148" t="n" s="0">
-        <v>37.0</v>
+        <v>123.0</v>
       </c>
       <c r="D148" t="s" s="0">
         <v>18</v>
@@ -9261,13 +8994,13 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="0">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C149" t="n" s="0">
-        <v>34.0</v>
+        <v>122.0</v>
       </c>
       <c r="D149" t="s" s="0">
         <v>18</v>
@@ -9311,13 +9044,13 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="0">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C150" t="n" s="0">
-        <v>35.0</v>
+        <v>125.0</v>
       </c>
       <c r="D150" t="s" s="0">
         <v>18</v>
@@ -9361,13 +9094,13 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="0">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C151" t="n" s="0">
-        <v>36.0</v>
+        <v>123.0</v>
       </c>
       <c r="D151" t="s" s="0">
         <v>18</v>
@@ -9411,13 +9144,13 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="0">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C152" t="n" s="0">
-        <v>36.0</v>
+        <v>125.0</v>
       </c>
       <c r="D152" t="s" s="0">
         <v>18</v>
@@ -9461,13 +9194,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="0">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C153" t="n" s="0">
-        <v>34.0</v>
+        <v>123.0</v>
       </c>
       <c r="D153" t="s" s="0">
         <v>18</v>
@@ -9511,13 +9244,13 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="0">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C154" t="n" s="0">
-        <v>35.0</v>
+        <v>125.0</v>
       </c>
       <c r="D154" t="s" s="0">
         <v>18</v>
@@ -9561,13 +9294,13 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="0">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C155" t="n" s="0">
-        <v>34.0</v>
+        <v>122.0</v>
       </c>
       <c r="D155" t="s" s="0">
         <v>18</v>
@@ -9611,13 +9344,13 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="0">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C156" t="n" s="0">
-        <v>35.0</v>
+        <v>122.0</v>
       </c>
       <c r="D156" t="s" s="0">
         <v>18</v>
@@ -9661,13 +9394,13 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="0">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C157" t="n" s="0">
-        <v>35.0</v>
+        <v>121.0</v>
       </c>
       <c r="D157" t="s" s="0">
         <v>18</v>
@@ -9711,13 +9444,13 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="0">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C158" t="n" s="0">
-        <v>34.0</v>
+        <v>124.0</v>
       </c>
       <c r="D158" t="s" s="0">
         <v>18</v>
@@ -9761,13 +9494,13 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="0">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C159" t="n" s="0">
-        <v>37.0</v>
+        <v>123.0</v>
       </c>
       <c r="D159" t="s" s="0">
         <v>18</v>
@@ -9811,13 +9544,13 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="0">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C160" t="n" s="0">
-        <v>34.0</v>
+        <v>121.0</v>
       </c>
       <c r="D160" t="s" s="0">
         <v>18</v>
@@ -9861,13 +9594,13 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="0">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C161" t="n" s="0">
-        <v>33.0</v>
+        <v>123.0</v>
       </c>
       <c r="D161" t="s" s="0">
         <v>18</v>
@@ -9911,13 +9644,13 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="0">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C162" t="n" s="0">
-        <v>35.0</v>
+        <v>124.0</v>
       </c>
       <c r="D162" t="s" s="0">
         <v>18</v>
@@ -9961,13 +9694,13 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="0">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C163" t="n" s="0">
-        <v>32.0</v>
+        <v>124.0</v>
       </c>
       <c r="D163" t="s" s="0">
         <v>18</v>
@@ -10011,13 +9744,13 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="0">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C164" t="n" s="0">
-        <v>37.0</v>
+        <v>124.0</v>
       </c>
       <c r="D164" t="s" s="0">
         <v>18</v>
@@ -10061,13 +9794,13 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="0">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C165" t="n" s="0">
-        <v>36.0</v>
+        <v>123.0</v>
       </c>
       <c r="D165" t="s" s="0">
         <v>18</v>
@@ -10111,13 +9844,13 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="0">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C166" t="n" s="0">
-        <v>34.0</v>
+        <v>122.0</v>
       </c>
       <c r="D166" t="s" s="0">
         <v>18</v>
@@ -10161,13 +9894,13 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="0">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C167" t="n" s="0">
-        <v>36.0</v>
+        <v>123.0</v>
       </c>
       <c r="D167" t="s" s="0">
         <v>18</v>
@@ -10211,13 +9944,13 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="0">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C168" t="n" s="0">
-        <v>33.0</v>
+        <v>122.0</v>
       </c>
       <c r="D168" t="s" s="0">
         <v>18</v>
@@ -10261,13 +9994,13 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="0">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C169" t="n" s="0">
-        <v>37.0</v>
+        <v>123.0</v>
       </c>
       <c r="D169" t="s" s="0">
         <v>18</v>
@@ -10311,13 +10044,13 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="0">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C170" t="n" s="0">
-        <v>33.0</v>
+        <v>122.0</v>
       </c>
       <c r="D170" t="s" s="0">
         <v>18</v>
@@ -10361,13 +10094,13 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="0">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C171" t="n" s="0">
-        <v>34.0</v>
+        <v>123.0</v>
       </c>
       <c r="D171" t="s" s="0">
         <v>18</v>
@@ -10411,13 +10144,13 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="0">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C172" t="n" s="0">
-        <v>37.0</v>
+        <v>124.0</v>
       </c>
       <c r="D172" t="s" s="0">
         <v>18</v>
@@ -10461,13 +10194,13 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="0">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C173" t="n" s="0">
-        <v>35.0</v>
+        <v>123.0</v>
       </c>
       <c r="D173" t="s" s="0">
         <v>18</v>
@@ -10511,13 +10244,13 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="0">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C174" t="n" s="0">
-        <v>32.0</v>
+        <v>120.0</v>
       </c>
       <c r="D174" t="s" s="0">
         <v>18</v>
@@ -10561,13 +10294,13 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="0">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C175" t="n" s="0">
-        <v>34.0</v>
+        <v>124.0</v>
       </c>
       <c r="D175" t="s" s="0">
         <v>18</v>
@@ -10611,13 +10344,13 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="0">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C176" t="n" s="0">
-        <v>37.0</v>
+        <v>122.0</v>
       </c>
       <c r="D176" t="s" s="0">
         <v>18</v>
@@ -10661,13 +10394,13 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="0">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C177" t="n" s="0">
-        <v>35.0</v>
+        <v>124.0</v>
       </c>
       <c r="D177" t="s" s="0">
         <v>18</v>
@@ -10711,13 +10444,13 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="0">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C178" t="n" s="0">
-        <v>35.0</v>
+        <v>122.0</v>
       </c>
       <c r="D178" t="s" s="0">
         <v>18</v>
@@ -10761,13 +10494,13 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="0">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C179" t="n" s="0">
-        <v>37.0</v>
+        <v>126.0</v>
       </c>
       <c r="D179" t="s" s="0">
         <v>18</v>
@@ -10811,13 +10544,13 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="0">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C180" t="n" s="0">
-        <v>32.0</v>
+        <v>124.0</v>
       </c>
       <c r="D180" t="s" s="0">
         <v>18</v>
@@ -10861,13 +10594,13 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="0">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C181" t="n" s="0">
-        <v>36.0</v>
+        <v>124.0</v>
       </c>
       <c r="D181" t="s" s="0">
         <v>18</v>
@@ -10911,13 +10644,13 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="0">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C182" t="n" s="0">
-        <v>35.0</v>
+        <v>122.0</v>
       </c>
       <c r="D182" t="s" s="0">
         <v>18</v>
@@ -10961,13 +10694,13 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="0">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B183" t="s" s="0">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C183" t="n" s="0">
-        <v>36.0</v>
+        <v>124.0</v>
       </c>
       <c r="D183" t="s" s="0">
         <v>18</v>
@@ -11011,13 +10744,13 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="0">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C184" t="n" s="0">
-        <v>34.0</v>
+        <v>124.0</v>
       </c>
       <c r="D184" t="s" s="0">
         <v>18</v>
@@ -11061,13 +10794,13 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="0">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B185" t="s" s="0">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C185" t="n" s="0">
-        <v>34.0</v>
+        <v>121.0</v>
       </c>
       <c r="D185" t="s" s="0">
         <v>18</v>
@@ -11111,13 +10844,13 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="0">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B186" t="s" s="0">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C186" t="n" s="0">
-        <v>34.0</v>
+        <v>125.0</v>
       </c>
       <c r="D186" t="s" s="0">
         <v>18</v>
@@ -11161,13 +10894,13 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="0">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B187" t="s" s="0">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C187" t="n" s="0">
-        <v>37.0</v>
+        <v>121.0</v>
       </c>
       <c r="D187" t="s" s="0">
         <v>18</v>
@@ -11211,13 +10944,13 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="0">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B188" t="s" s="0">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C188" t="n" s="0">
-        <v>36.0</v>
+        <v>125.0</v>
       </c>
       <c r="D188" t="s" s="0">
         <v>18</v>
@@ -11261,13 +10994,13 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="0">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B189" t="s" s="0">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C189" t="n" s="0">
-        <v>37.0</v>
+        <v>124.0</v>
       </c>
       <c r="D189" t="s" s="0">
         <v>18</v>
@@ -11311,13 +11044,13 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="0">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B190" t="s" s="0">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C190" t="n" s="0">
-        <v>38.0</v>
+        <v>123.0</v>
       </c>
       <c r="D190" t="s" s="0">
         <v>18</v>
@@ -11361,13 +11094,13 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="0">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B191" t="s" s="0">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C191" t="n" s="0">
-        <v>35.0</v>
+        <v>121.0</v>
       </c>
       <c r="D191" t="s" s="0">
         <v>18</v>
@@ -11411,13 +11144,13 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="0">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B192" t="s" s="0">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C192" t="n" s="0">
-        <v>35.0</v>
+        <v>124.0</v>
       </c>
       <c r="D192" t="s" s="0">
         <v>18</v>
@@ -11461,13 +11194,13 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="0">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B193" t="s" s="0">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C193" t="n" s="0">
-        <v>34.0</v>
+        <v>122.0</v>
       </c>
       <c r="D193" t="s" s="0">
         <v>18</v>
@@ -11511,13 +11244,13 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="0">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B194" t="s" s="0">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C194" t="n" s="0">
-        <v>32.0</v>
+        <v>123.0</v>
       </c>
       <c r="D194" t="s" s="0">
         <v>18</v>
@@ -11561,13 +11294,13 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="0">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B195" t="s" s="0">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C195" t="n" s="0">
-        <v>35.0</v>
+        <v>124.0</v>
       </c>
       <c r="D195" t="s" s="0">
         <v>18</v>
@@ -11611,13 +11344,13 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="0">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C196" t="n" s="0">
-        <v>35.0</v>
+        <v>122.0</v>
       </c>
       <c r="D196" t="s" s="0">
         <v>18</v>
@@ -11661,13 +11394,13 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="0">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B197" t="s" s="0">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C197" t="n" s="0">
-        <v>35.0</v>
+        <v>123.0</v>
       </c>
       <c r="D197" t="s" s="0">
         <v>18</v>
@@ -11711,13 +11444,13 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="0">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B198" t="s" s="0">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C198" t="n" s="0">
-        <v>36.0</v>
+        <v>126.0</v>
       </c>
       <c r="D198" t="s" s="0">
         <v>18</v>
@@ -11761,13 +11494,13 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="0">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B199" t="s" s="0">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C199" t="n" s="0">
-        <v>33.0</v>
+        <v>124.0</v>
       </c>
       <c r="D199" t="s" s="0">
         <v>18</v>
@@ -11811,13 +11544,13 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="0">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B200" t="s" s="0">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C200" t="n" s="0">
-        <v>35.0</v>
+        <v>126.0</v>
       </c>
       <c r="D200" t="s" s="0">
         <v>18</v>
@@ -11861,13 +11594,13 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="0">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B201" t="s" s="0">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C201" t="n" s="0">
-        <v>34.0</v>
+        <v>122.0</v>
       </c>
       <c r="D201" t="s" s="0">
         <v>18</v>
@@ -11911,13 +11644,13 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B202" t="s" s="0">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C202" t="n" s="0">
-        <v>33.0</v>
+        <v>126.0</v>
       </c>
       <c r="D202" t="s" s="0">
         <v>18</v>
@@ -11961,13 +11694,13 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="0">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B203" t="s" s="0">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C203" t="n" s="0">
-        <v>34.0</v>
+        <v>122.0</v>
       </c>
       <c r="D203" t="s" s="0">
         <v>18</v>
@@ -12011,13 +11744,13 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="0">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B204" t="s" s="0">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C204" t="n" s="0">
-        <v>35.0</v>
+        <v>124.0</v>
       </c>
       <c r="D204" t="s" s="0">
         <v>18</v>
@@ -12061,13 +11794,13 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="0">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B205" t="s" s="0">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C205" t="n" s="0">
-        <v>34.0</v>
+        <v>123.0</v>
       </c>
       <c r="D205" t="s" s="0">
         <v>18</v>
@@ -12111,13 +11844,13 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="0">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B206" t="s" s="0">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C206" t="n" s="0">
-        <v>33.0</v>
+        <v>123.0</v>
       </c>
       <c r="D206" t="s" s="0">
         <v>18</v>
@@ -12161,13 +11894,13 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="0">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B207" t="s" s="0">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C207" t="n" s="0">
-        <v>34.0</v>
+        <v>124.0</v>
       </c>
       <c r="D207" t="s" s="0">
         <v>18</v>
@@ -12211,13 +11944,13 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="0">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B208" t="s" s="0">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C208" t="n" s="0">
-        <v>32.0</v>
+        <v>123.0</v>
       </c>
       <c r="D208" t="s" s="0">
         <v>18</v>
@@ -12261,13 +11994,13 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="0">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B209" t="s" s="0">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C209" t="n" s="0">
-        <v>34.0</v>
+        <v>122.0</v>
       </c>
       <c r="D209" t="s" s="0">
         <v>18</v>
@@ -12311,13 +12044,13 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="0">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B210" t="s" s="0">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C210" t="n" s="0">
-        <v>35.0</v>
+        <v>122.0</v>
       </c>
       <c r="D210" t="s" s="0">
         <v>18</v>
@@ -12361,13 +12094,13 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="0">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B211" t="s" s="0">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C211" t="n" s="0">
-        <v>33.0</v>
+        <v>123.0</v>
       </c>
       <c r="D211" t="s" s="0">
         <v>18</v>
@@ -12411,13 +12144,13 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="0">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B212" t="s" s="0">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C212" t="n" s="0">
-        <v>39.0</v>
+        <v>122.0</v>
       </c>
       <c r="D212" t="s" s="0">
         <v>18</v>
@@ -12461,13 +12194,13 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="0">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B213" t="s" s="0">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C213" t="n" s="0">
-        <v>36.0</v>
+        <v>128.0</v>
       </c>
       <c r="D213" t="s" s="0">
         <v>18</v>
@@ -12511,13 +12244,13 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="0">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B214" t="s" s="0">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C214" t="n" s="0">
-        <v>36.0</v>
+        <v>124.0</v>
       </c>
       <c r="D214" t="s" s="0">
         <v>18</v>
@@ -12561,13 +12294,13 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="0">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B215" t="s" s="0">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C215" t="n" s="0">
-        <v>33.0</v>
+        <v>124.0</v>
       </c>
       <c r="D215" t="s" s="0">
         <v>18</v>
@@ -12611,13 +12344,13 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="0">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B216" t="s" s="0">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C216" t="n" s="0">
-        <v>40.0</v>
+        <v>126.0</v>
       </c>
       <c r="D216" t="s" s="0">
         <v>18</v>
@@ -12661,13 +12394,13 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="0">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B217" t="s" s="0">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C217" t="n" s="0">
-        <v>36.0</v>
+        <v>124.0</v>
       </c>
       <c r="D217" t="s" s="0">
         <v>18</v>
@@ -12711,13 +12444,13 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="0">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B218" t="s" s="0">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C218" t="n" s="0">
-        <v>34.0</v>
+        <v>125.0</v>
       </c>
       <c r="D218" t="s" s="0">
         <v>18</v>
@@ -12761,13 +12494,13 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="0">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B219" t="s" s="0">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C219" t="n" s="0">
-        <v>36.0</v>
+        <v>127.0</v>
       </c>
       <c r="D219" t="s" s="0">
         <v>18</v>
@@ -12811,13 +12544,13 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="0">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B220" t="s" s="0">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C220" t="n" s="0">
-        <v>35.0</v>
+        <v>121.0</v>
       </c>
       <c r="D220" t="s" s="0">
         <v>18</v>
@@ -12861,13 +12594,13 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="0">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B221" t="s" s="0">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C221" t="n" s="0">
-        <v>36.0</v>
+        <v>122.0</v>
       </c>
       <c r="D221" t="s" s="0">
         <v>18</v>
@@ -12911,13 +12644,13 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="0">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B222" t="s" s="0">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C222" t="n" s="0">
-        <v>33.0</v>
+        <v>122.0</v>
       </c>
       <c r="D222" t="s" s="0">
         <v>18</v>
@@ -12961,13 +12694,13 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="0">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B223" t="s" s="0">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C223" t="n" s="0">
-        <v>35.0</v>
+        <v>124.0</v>
       </c>
       <c r="D223" t="s" s="0">
         <v>18</v>
@@ -13011,13 +12744,13 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="0">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B224" t="s" s="0">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C224" t="n" s="0">
-        <v>35.0</v>
+        <v>125.0</v>
       </c>
       <c r="D224" t="s" s="0">
         <v>18</v>
@@ -13061,13 +12794,13 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="0">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B225" t="s" s="0">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C225" t="n" s="0">
-        <v>37.0</v>
+        <v>122.0</v>
       </c>
       <c r="D225" t="s" s="0">
         <v>18</v>
@@ -13111,13 +12844,13 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="0">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B226" t="s" s="0">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C226" t="n" s="0">
-        <v>36.0</v>
+        <v>124.0</v>
       </c>
       <c r="D226" t="s" s="0">
         <v>18</v>
@@ -13161,13 +12894,13 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="0">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B227" t="s" s="0">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C227" t="n" s="0">
-        <v>33.0</v>
+        <v>124.0</v>
       </c>
       <c r="D227" t="s" s="0">
         <v>18</v>
@@ -13211,13 +12944,13 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="0">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B228" t="s" s="0">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C228" t="n" s="0">
-        <v>38.0</v>
+        <v>122.0</v>
       </c>
       <c r="D228" t="s" s="0">
         <v>18</v>
@@ -13261,13 +12994,13 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="0">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B229" t="s" s="0">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C229" t="n" s="0">
-        <v>33.0</v>
+        <v>124.0</v>
       </c>
       <c r="D229" t="s" s="0">
         <v>18</v>
@@ -13311,13 +13044,13 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="0">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B230" t="s" s="0">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C230" t="n" s="0">
-        <v>35.0</v>
+        <v>126.0</v>
       </c>
       <c r="D230" t="s" s="0">
         <v>18</v>
@@ -13361,13 +13094,13 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="0">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B231" t="s" s="0">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C231" t="n" s="0">
-        <v>36.0</v>
+        <v>126.0</v>
       </c>
       <c r="D231" t="s" s="0">
         <v>18</v>
@@ -13411,13 +13144,13 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="0">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B232" t="s" s="0">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C232" t="n" s="0">
-        <v>35.0</v>
+        <v>127.0</v>
       </c>
       <c r="D232" t="s" s="0">
         <v>18</v>
@@ -13461,13 +13194,13 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="0">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B233" t="s" s="0">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C233" t="n" s="0">
-        <v>34.0</v>
+        <v>123.0</v>
       </c>
       <c r="D233" t="s" s="0">
         <v>18</v>
@@ -13511,13 +13244,13 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="0">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B234" t="s" s="0">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C234" t="n" s="0">
-        <v>33.0</v>
+        <v>124.0</v>
       </c>
       <c r="D234" t="s" s="0">
         <v>18</v>
@@ -13561,13 +13294,13 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="0">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B235" t="s" s="0">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C235" t="n" s="0">
-        <v>33.0</v>
+        <v>125.0</v>
       </c>
       <c r="D235" t="s" s="0">
         <v>18</v>
@@ -13611,13 +13344,13 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="0">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B236" t="s" s="0">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C236" t="n" s="0">
-        <v>39.0</v>
+        <v>122.0</v>
       </c>
       <c r="D236" t="s" s="0">
         <v>18</v>
@@ -13661,13 +13394,13 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="0">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B237" t="s" s="0">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C237" t="n" s="0">
-        <v>33.0</v>
+        <v>123.0</v>
       </c>
       <c r="D237" t="s" s="0">
         <v>18</v>
@@ -13711,13 +13444,13 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="0">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B238" t="s" s="0">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C238" t="n" s="0">
-        <v>35.0</v>
+        <v>124.0</v>
       </c>
       <c r="D238" t="s" s="0">
         <v>18</v>
@@ -13761,13 +13494,13 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="0">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B239" t="s" s="0">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C239" t="n" s="0">
-        <v>33.0</v>
+        <v>123.0</v>
       </c>
       <c r="D239" t="s" s="0">
         <v>18</v>
@@ -13811,13 +13544,13 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="0">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B240" t="s" s="0">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C240" t="n" s="0">
-        <v>35.0</v>
+        <v>122.0</v>
       </c>
       <c r="D240" t="s" s="0">
         <v>18</v>
@@ -13861,13 +13594,13 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="0">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B241" t="s" s="0">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C241" t="n" s="0">
-        <v>35.0</v>
+        <v>126.0</v>
       </c>
       <c r="D241" t="s" s="0">
         <v>18</v>
@@ -13911,13 +13644,13 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="0">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B242" t="s" s="0">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C242" t="n" s="0">
-        <v>37.0</v>
+        <v>124.0</v>
       </c>
       <c r="D242" t="s" s="0">
         <v>18</v>
@@ -13961,13 +13694,13 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="0">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B243" t="s" s="0">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C243" t="n" s="0">
-        <v>34.0</v>
+        <v>123.0</v>
       </c>
       <c r="D243" t="s" s="0">
         <v>18</v>
@@ -14011,13 +13744,13 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="0">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B244" t="s" s="0">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C244" t="n" s="0">
-        <v>33.0</v>
+        <v>122.0</v>
       </c>
       <c r="D244" t="s" s="0">
         <v>18</v>
@@ -14061,13 +13794,13 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="0">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B245" t="s" s="0">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C245" t="n" s="0">
-        <v>35.0</v>
+        <v>125.0</v>
       </c>
       <c r="D245" t="s" s="0">
         <v>18</v>
@@ -14111,13 +13844,13 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="0">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B246" t="s" s="0">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C246" t="n" s="0">
-        <v>34.0</v>
+        <v>121.0</v>
       </c>
       <c r="D246" t="s" s="0">
         <v>18</v>
@@ -14161,13 +13894,13 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="0">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B247" t="s" s="0">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C247" t="n" s="0">
-        <v>36.0</v>
+        <v>123.0</v>
       </c>
       <c r="D247" t="s" s="0">
         <v>18</v>
@@ -14211,13 +13944,13 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="0">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B248" t="s" s="0">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C248" t="n" s="0">
-        <v>32.0</v>
+        <v>125.0</v>
       </c>
       <c r="D248" t="s" s="0">
         <v>18</v>
@@ -14261,13 +13994,13 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="0">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B249" t="s" s="0">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C249" t="n" s="0">
-        <v>33.0</v>
+        <v>122.0</v>
       </c>
       <c r="D249" t="s" s="0">
         <v>18</v>
@@ -14306,2156 +14039,6 @@
         <v>18</v>
       </c>
       <c r="P249" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="s" s="0">
-        <v>513</v>
-      </c>
-      <c r="B250" t="s" s="0">
-        <v>514</v>
-      </c>
-      <c r="C250" t="n" s="0">
-        <v>33.0</v>
-      </c>
-      <c r="D250" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="E250" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F250" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="G250" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H250" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I250" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="J250" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K250" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="L250" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="M250" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="N250" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="O250" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="P250" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="s" s="0">
-        <v>515</v>
-      </c>
-      <c r="B251" t="s" s="0">
-        <v>516</v>
-      </c>
-      <c r="C251" t="n" s="0">
-        <v>36.0</v>
-      </c>
-      <c r="D251" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="E251" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F251" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="G251" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H251" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I251" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="J251" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K251" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="L251" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="M251" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="N251" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="O251" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="P251" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="s" s="0">
-        <v>517</v>
-      </c>
-      <c r="B252" t="s" s="0">
-        <v>518</v>
-      </c>
-      <c r="C252" t="n" s="0">
-        <v>35.0</v>
-      </c>
-      <c r="D252" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="E252" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F252" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="G252" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H252" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I252" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="J252" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K252" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="L252" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="M252" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="N252" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="O252" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="P252" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="s" s="0">
-        <v>519</v>
-      </c>
-      <c r="B253" t="s" s="0">
-        <v>520</v>
-      </c>
-      <c r="C253" t="n" s="0">
-        <v>35.0</v>
-      </c>
-      <c r="D253" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="E253" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F253" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="G253" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H253" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I253" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="J253" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K253" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="L253" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="M253" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="N253" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="O253" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="P253" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="s" s="0">
-        <v>521</v>
-      </c>
-      <c r="B254" t="s" s="0">
-        <v>522</v>
-      </c>
-      <c r="C254" t="n" s="0">
-        <v>37.0</v>
-      </c>
-      <c r="D254" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="E254" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F254" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="G254" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H254" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I254" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="J254" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K254" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="L254" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="M254" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="N254" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="O254" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="P254" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="s" s="0">
-        <v>523</v>
-      </c>
-      <c r="B255" t="s" s="0">
-        <v>524</v>
-      </c>
-      <c r="C255" t="n" s="0">
-        <v>36.0</v>
-      </c>
-      <c r="D255" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="E255" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F255" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="G255" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H255" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I255" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="J255" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K255" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="L255" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="M255" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="N255" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="O255" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="P255" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="s" s="0">
-        <v>525</v>
-      </c>
-      <c r="B256" t="s" s="0">
-        <v>526</v>
-      </c>
-      <c r="C256" t="n" s="0">
-        <v>33.0</v>
-      </c>
-      <c r="D256" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="E256" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F256" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="G256" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H256" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I256" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="J256" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K256" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="L256" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="M256" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="N256" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="O256" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="P256" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="s" s="0">
-        <v>527</v>
-      </c>
-      <c r="B257" t="s" s="0">
-        <v>528</v>
-      </c>
-      <c r="C257" t="n" s="0">
-        <v>34.0</v>
-      </c>
-      <c r="D257" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="E257" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F257" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="G257" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H257" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I257" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="J257" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K257" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="L257" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="M257" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="N257" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="O257" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="P257" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="s" s="0">
-        <v>529</v>
-      </c>
-      <c r="B258" t="s" s="0">
-        <v>530</v>
-      </c>
-      <c r="C258" t="n" s="0">
-        <v>36.0</v>
-      </c>
-      <c r="D258" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="E258" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F258" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="G258" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H258" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I258" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="J258" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K258" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="L258" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="M258" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="N258" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="O258" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="P258" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="s" s="0">
-        <v>531</v>
-      </c>
-      <c r="B259" t="s" s="0">
-        <v>532</v>
-      </c>
-      <c r="C259" t="n" s="0">
-        <v>35.0</v>
-      </c>
-      <c r="D259" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="E259" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F259" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="G259" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H259" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I259" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="J259" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K259" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="L259" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="M259" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="N259" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="O259" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="P259" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="s" s="0">
-        <v>533</v>
-      </c>
-      <c r="B260" t="s" s="0">
-        <v>534</v>
-      </c>
-      <c r="C260" t="n" s="0">
-        <v>34.0</v>
-      </c>
-      <c r="D260" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="E260" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F260" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="G260" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H260" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I260" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="J260" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K260" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="L260" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="M260" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="N260" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="O260" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="P260" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="s" s="0">
-        <v>535</v>
-      </c>
-      <c r="B261" t="s" s="0">
-        <v>536</v>
-      </c>
-      <c r="C261" t="n" s="0">
-        <v>37.0</v>
-      </c>
-      <c r="D261" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="E261" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F261" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="G261" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H261" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I261" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="J261" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K261" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="L261" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="M261" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="N261" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="O261" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="P261" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="s" s="0">
-        <v>537</v>
-      </c>
-      <c r="B262" t="s" s="0">
-        <v>538</v>
-      </c>
-      <c r="C262" t="n" s="0">
-        <v>31.0</v>
-      </c>
-      <c r="D262" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="E262" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F262" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="G262" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H262" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I262" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="J262" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K262" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="L262" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="M262" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="N262" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="O262" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="P262" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="s" s="0">
-        <v>539</v>
-      </c>
-      <c r="B263" t="s" s="0">
-        <v>540</v>
-      </c>
-      <c r="C263" t="n" s="0">
-        <v>37.0</v>
-      </c>
-      <c r="D263" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="E263" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F263" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="G263" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H263" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I263" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="J263" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K263" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="L263" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="M263" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="N263" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="O263" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="P263" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="s" s="0">
-        <v>541</v>
-      </c>
-      <c r="B264" t="s" s="0">
-        <v>542</v>
-      </c>
-      <c r="C264" t="n" s="0">
-        <v>34.0</v>
-      </c>
-      <c r="D264" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="E264" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F264" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="G264" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H264" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I264" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="J264" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K264" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="L264" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="M264" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="N264" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="O264" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="P264" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="s" s="0">
-        <v>543</v>
-      </c>
-      <c r="B265" t="s" s="0">
-        <v>544</v>
-      </c>
-      <c r="C265" t="n" s="0">
-        <v>35.0</v>
-      </c>
-      <c r="D265" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="E265" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F265" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="G265" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H265" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I265" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="J265" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K265" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="L265" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="M265" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="N265" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="O265" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="P265" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="s" s="0">
-        <v>545</v>
-      </c>
-      <c r="B266" t="s" s="0">
-        <v>546</v>
-      </c>
-      <c r="C266" t="n" s="0">
-        <v>36.0</v>
-      </c>
-      <c r="D266" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="E266" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F266" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="G266" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H266" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I266" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="J266" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K266" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="L266" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="M266" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="N266" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="O266" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="P266" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="s" s="0">
-        <v>547</v>
-      </c>
-      <c r="B267" t="s" s="0">
-        <v>548</v>
-      </c>
-      <c r="C267" t="n" s="0">
-        <v>37.0</v>
-      </c>
-      <c r="D267" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="E267" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F267" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="G267" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H267" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I267" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="J267" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K267" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="L267" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="M267" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="N267" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="O267" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="P267" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="s" s="0">
-        <v>549</v>
-      </c>
-      <c r="B268" t="s" s="0">
-        <v>550</v>
-      </c>
-      <c r="C268" t="n" s="0">
-        <v>35.0</v>
-      </c>
-      <c r="D268" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="E268" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F268" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="G268" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H268" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I268" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="J268" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K268" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="L268" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="M268" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="N268" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="O268" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="P268" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="s" s="0">
-        <v>551</v>
-      </c>
-      <c r="B269" t="s" s="0">
-        <v>552</v>
-      </c>
-      <c r="C269" t="n" s="0">
-        <v>33.0</v>
-      </c>
-      <c r="D269" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="E269" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F269" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="G269" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H269" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I269" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="J269" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K269" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="L269" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="M269" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="N269" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="O269" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="P269" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="s" s="0">
-        <v>553</v>
-      </c>
-      <c r="B270" t="s" s="0">
-        <v>554</v>
-      </c>
-      <c r="C270" t="n" s="0">
-        <v>35.0</v>
-      </c>
-      <c r="D270" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="E270" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F270" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="G270" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H270" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I270" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="J270" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K270" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="L270" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="M270" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="N270" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="O270" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="P270" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="s" s="0">
-        <v>555</v>
-      </c>
-      <c r="B271" t="s" s="0">
-        <v>556</v>
-      </c>
-      <c r="C271" t="n" s="0">
-        <v>33.0</v>
-      </c>
-      <c r="D271" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="E271" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F271" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="G271" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H271" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I271" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="J271" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K271" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="L271" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="M271" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="N271" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="O271" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="P271" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="s" s="0">
-        <v>557</v>
-      </c>
-      <c r="B272" t="s" s="0">
-        <v>558</v>
-      </c>
-      <c r="C272" t="n" s="0">
-        <v>33.0</v>
-      </c>
-      <c r="D272" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="E272" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F272" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="G272" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H272" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I272" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="J272" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K272" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="L272" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="M272" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="N272" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="O272" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="P272" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="s" s="0">
-        <v>559</v>
-      </c>
-      <c r="B273" t="s" s="0">
-        <v>560</v>
-      </c>
-      <c r="C273" t="n" s="0">
-        <v>36.0</v>
-      </c>
-      <c r="D273" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="E273" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F273" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="G273" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H273" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I273" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="J273" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K273" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="L273" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="M273" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="N273" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="O273" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="P273" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="s" s="0">
-        <v>561</v>
-      </c>
-      <c r="B274" t="s" s="0">
-        <v>562</v>
-      </c>
-      <c r="C274" t="n" s="0">
-        <v>35.0</v>
-      </c>
-      <c r="D274" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="E274" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F274" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="G274" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H274" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I274" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="J274" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K274" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="L274" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="M274" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="N274" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="O274" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="P274" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="s" s="0">
-        <v>563</v>
-      </c>
-      <c r="B275" t="s" s="0">
-        <v>564</v>
-      </c>
-      <c r="C275" t="n" s="0">
-        <v>35.0</v>
-      </c>
-      <c r="D275" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="E275" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F275" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="G275" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H275" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I275" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="J275" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K275" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="L275" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="M275" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="N275" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="O275" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="P275" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="s" s="0">
-        <v>565</v>
-      </c>
-      <c r="B276" t="s" s="0">
-        <v>566</v>
-      </c>
-      <c r="C276" t="n" s="0">
-        <v>33.0</v>
-      </c>
-      <c r="D276" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="E276" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F276" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="G276" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H276" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I276" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="J276" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K276" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="L276" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="M276" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="N276" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="O276" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="P276" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="s" s="0">
-        <v>567</v>
-      </c>
-      <c r="B277" t="s" s="0">
-        <v>568</v>
-      </c>
-      <c r="C277" t="n" s="0">
-        <v>33.0</v>
-      </c>
-      <c r="D277" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="E277" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F277" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="G277" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H277" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I277" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="J277" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K277" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="L277" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="M277" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="N277" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="O277" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="P277" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="s" s="0">
-        <v>569</v>
-      </c>
-      <c r="B278" t="s" s="0">
-        <v>570</v>
-      </c>
-      <c r="C278" t="n" s="0">
-        <v>34.0</v>
-      </c>
-      <c r="D278" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="E278" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F278" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="G278" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H278" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I278" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="J278" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K278" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="L278" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="M278" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="N278" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="O278" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="P278" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="s" s="0">
-        <v>571</v>
-      </c>
-      <c r="B279" t="s" s="0">
-        <v>572</v>
-      </c>
-      <c r="C279" t="n" s="0">
-        <v>37.0</v>
-      </c>
-      <c r="D279" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="E279" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F279" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="G279" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H279" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I279" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="J279" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K279" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="L279" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="M279" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="N279" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="O279" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="P279" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="s" s="0">
-        <v>573</v>
-      </c>
-      <c r="B280" t="s" s="0">
-        <v>574</v>
-      </c>
-      <c r="C280" t="n" s="0">
-        <v>39.0</v>
-      </c>
-      <c r="D280" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="E280" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F280" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="G280" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H280" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I280" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="J280" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K280" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="L280" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="M280" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="N280" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="O280" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="P280" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="s" s="0">
-        <v>575</v>
-      </c>
-      <c r="B281" t="s" s="0">
-        <v>576</v>
-      </c>
-      <c r="C281" t="n" s="0">
-        <v>36.0</v>
-      </c>
-      <c r="D281" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="E281" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F281" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="G281" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H281" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I281" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="J281" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K281" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="L281" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="M281" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="N281" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="O281" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="P281" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="s" s="0">
-        <v>577</v>
-      </c>
-      <c r="B282" t="s" s="0">
-        <v>578</v>
-      </c>
-      <c r="C282" t="n" s="0">
-        <v>36.0</v>
-      </c>
-      <c r="D282" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="E282" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F282" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="G282" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H282" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I282" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="J282" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K282" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="L282" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="M282" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="N282" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="O282" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="P282" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="s" s="0">
-        <v>579</v>
-      </c>
-      <c r="B283" t="s" s="0">
-        <v>580</v>
-      </c>
-      <c r="C283" t="n" s="0">
-        <v>34.0</v>
-      </c>
-      <c r="D283" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="E283" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F283" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="G283" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H283" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I283" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="J283" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K283" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="L283" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="M283" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="N283" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="O283" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="P283" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="s" s="0">
-        <v>581</v>
-      </c>
-      <c r="B284" t="s" s="0">
-        <v>582</v>
-      </c>
-      <c r="C284" t="n" s="0">
-        <v>35.0</v>
-      </c>
-      <c r="D284" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="E284" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F284" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="G284" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H284" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I284" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="J284" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K284" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="L284" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="M284" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="N284" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="O284" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="P284" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="s" s="0">
-        <v>583</v>
-      </c>
-      <c r="B285" t="s" s="0">
-        <v>584</v>
-      </c>
-      <c r="C285" t="n" s="0">
-        <v>35.0</v>
-      </c>
-      <c r="D285" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="E285" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F285" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="G285" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H285" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I285" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="J285" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K285" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="L285" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="M285" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="N285" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="O285" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="P285" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="s" s="0">
-        <v>585</v>
-      </c>
-      <c r="B286" t="s" s="0">
-        <v>586</v>
-      </c>
-      <c r="C286" t="n" s="0">
-        <v>34.0</v>
-      </c>
-      <c r="D286" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="E286" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F286" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="G286" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H286" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I286" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="J286" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K286" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="L286" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="M286" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="N286" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="O286" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="P286" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="s" s="0">
-        <v>587</v>
-      </c>
-      <c r="B287" t="s" s="0">
-        <v>588</v>
-      </c>
-      <c r="C287" t="n" s="0">
-        <v>35.0</v>
-      </c>
-      <c r="D287" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="E287" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F287" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="G287" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H287" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I287" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="J287" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K287" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="L287" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="M287" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="N287" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="O287" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="P287" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="s" s="0">
-        <v>589</v>
-      </c>
-      <c r="B288" t="s" s="0">
-        <v>590</v>
-      </c>
-      <c r="C288" t="n" s="0">
-        <v>35.0</v>
-      </c>
-      <c r="D288" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="E288" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F288" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="G288" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H288" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I288" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="J288" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K288" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="L288" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="M288" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="N288" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="O288" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="P288" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="s" s="0">
-        <v>591</v>
-      </c>
-      <c r="B289" t="s" s="0">
-        <v>592</v>
-      </c>
-      <c r="C289" t="n" s="0">
-        <v>39.0</v>
-      </c>
-      <c r="D289" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="E289" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F289" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="G289" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H289" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I289" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="J289" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K289" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="L289" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="M289" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="N289" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="O289" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="P289" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="s" s="0">
-        <v>593</v>
-      </c>
-      <c r="B290" t="s" s="0">
-        <v>594</v>
-      </c>
-      <c r="C290" t="n" s="0">
-        <v>34.0</v>
-      </c>
-      <c r="D290" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="E290" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F290" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="G290" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H290" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I290" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="J290" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K290" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="L290" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="M290" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="N290" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="O290" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="P290" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="s" s="0">
-        <v>595</v>
-      </c>
-      <c r="B291" t="s" s="0">
-        <v>596</v>
-      </c>
-      <c r="C291" t="n" s="0">
-        <v>38.0</v>
-      </c>
-      <c r="D291" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="E291" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F291" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="G291" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H291" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I291" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="J291" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K291" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="L291" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="M291" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="N291" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="O291" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="P291" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="s" s="0">
-        <v>597</v>
-      </c>
-      <c r="B292" t="s" s="0">
-        <v>598</v>
-      </c>
-      <c r="C292" t="n" s="0">
-        <v>33.0</v>
-      </c>
-      <c r="D292" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="E292" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F292" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="G292" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H292" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I292" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="J292" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K292" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="L292" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="M292" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="N292" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="O292" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="P292" t="s" s="0">
         <v>18</v>
       </c>
     </row>
